--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948775588209987</v>
+        <v>0.9948775588209989</v>
       </c>
       <c r="D2">
         <v>1.013703766160869</v>
       </c>
       <c r="E2">
-        <v>0.9783198620611234</v>
+        <v>0.978319862061123</v>
       </c>
       <c r="F2">
-        <v>0.9990374575329471</v>
+        <v>0.9990374575329469</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.024975430811689</v>
       </c>
       <c r="L2">
-        <v>0.9900897332457795</v>
+        <v>0.990089733245779</v>
       </c>
       <c r="M2">
         <v>1.010510218409019</v>
@@ -465,7 +465,7 @@
         <v>1.018275469669689</v>
       </c>
       <c r="E3">
-        <v>0.9835797126117911</v>
+        <v>0.9835797126117907</v>
       </c>
       <c r="F3">
         <v>1.005307413106185</v>
@@ -483,7 +483,7 @@
         <v>1.028679732923623</v>
       </c>
       <c r="L3">
-        <v>0.994427096787746</v>
+        <v>0.9944270967877455</v>
       </c>
       <c r="M3">
         <v>1.015872832035788</v>
@@ -503,7 +503,7 @@
         <v>1.021154040384656</v>
       </c>
       <c r="E4">
-        <v>0.9869059782434477</v>
+        <v>0.9869059782434476</v>
       </c>
       <c r="F4">
         <v>1.009262071816874</v>
@@ -521,7 +521,7 @@
         <v>1.031003686574582</v>
       </c>
       <c r="L4">
-        <v>0.9971650485012377</v>
+        <v>0.9971650485012374</v>
       </c>
       <c r="M4">
         <v>1.019249982430947</v>
@@ -538,7 +538,7 @@
         <v>1.006628794410515</v>
       </c>
       <c r="D5">
-        <v>1.022345967109278</v>
+        <v>1.022345967109279</v>
       </c>
       <c r="E5">
         <v>0.9882867360849037</v>
@@ -559,7 +559,7 @@
         <v>1.031963941901689</v>
       </c>
       <c r="L5">
-        <v>0.9983004087936691</v>
+        <v>0.9983004087936693</v>
       </c>
       <c r="M5">
         <v>1.020648540185988</v>
@@ -576,7 +576,7 @@
         <v>1.006899302881483</v>
       </c>
       <c r="D6">
-        <v>1.022545051444788</v>
+        <v>1.022545051444789</v>
       </c>
       <c r="E6">
         <v>0.9885175635649286</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046624373419508</v>
+        <v>1.046624373419509</v>
       </c>
       <c r="J6">
-        <v>1.025602023850257</v>
+        <v>1.025602023850258</v>
       </c>
       <c r="K6">
         <v>1.032124212087593</v>
       </c>
       <c r="L6">
-        <v>0.9984901425159399</v>
+        <v>0.9984901425159398</v>
       </c>
       <c r="M6">
         <v>1.02088214968448</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005030829499191</v>
+        <v>1.005030829499192</v>
       </c>
       <c r="D7">
         <v>1.021170037511465</v>
       </c>
       <c r="E7">
-        <v>0.9869244960495097</v>
+        <v>0.9869244960495089</v>
       </c>
       <c r="F7">
         <v>1.009284065103822</v>
@@ -632,10 +632,10 @@
         <v>1.024300671853945</v>
       </c>
       <c r="K7">
-        <v>1.031016582374225</v>
+        <v>1.031016582374226</v>
       </c>
       <c r="L7">
-        <v>0.9971802798750007</v>
+        <v>0.9971802798750001</v>
       </c>
       <c r="M7">
         <v>1.019268752012485</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997002942766378</v>
+        <v>0.997002942766379</v>
       </c>
       <c r="D8">
-        <v>1.015265806231497</v>
+        <v>1.015265806231498</v>
       </c>
       <c r="E8">
-        <v>0.9801139889454393</v>
+        <v>0.9801139889454399</v>
       </c>
       <c r="F8">
-        <v>1.001178365004398</v>
+        <v>1.001178365004399</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.043201775227256</v>
       </c>
       <c r="J8">
-        <v>1.018698441930606</v>
+        <v>1.018698441930607</v>
       </c>
       <c r="K8">
-        <v>1.026242887938921</v>
+        <v>1.026242887938922</v>
       </c>
       <c r="L8">
-        <v>0.9915702412545813</v>
+        <v>0.9915702412545818</v>
       </c>
       <c r="M8">
         <v>1.012342398211588</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819442702342629</v>
+        <v>0.9819442702342622</v>
       </c>
       <c r="D9">
-        <v>1.004210891771656</v>
+        <v>1.004210891771655</v>
       </c>
       <c r="E9">
-        <v>0.9674787748284776</v>
+        <v>0.9674787748284772</v>
       </c>
       <c r="F9">
-        <v>0.9860527278111371</v>
+        <v>0.9860527278111367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037874082873425</v>
+        <v>1.037874082873424</v>
       </c>
       <c r="J9">
         <v>1.008151139692818</v>
       </c>
       <c r="K9">
-        <v>1.017236017646106</v>
+        <v>1.017236017646105</v>
       </c>
       <c r="L9">
-        <v>0.9811224850202928</v>
+        <v>0.9811224850202926</v>
       </c>
       <c r="M9">
-        <v>0.9993762169196124</v>
+        <v>0.999376216919612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971194488027777</v>
+        <v>0.9711944880277777</v>
       </c>
       <c r="D10">
-        <v>0.9963399915682803</v>
+        <v>0.9963399915682813</v>
       </c>
       <c r="E10">
-        <v>0.9585630227902993</v>
+        <v>0.9585630227903005</v>
       </c>
       <c r="F10">
-        <v>0.9753132441505379</v>
+        <v>0.9753132441505393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034000805652724</v>
+        <v>1.034000805652725</v>
       </c>
       <c r="J10">
-        <v>1.000599502917538</v>
+        <v>1.000599502917539</v>
       </c>
       <c r="K10">
-        <v>1.010775644539947</v>
+        <v>1.010775644539948</v>
       </c>
       <c r="L10">
-        <v>0.9737230301466019</v>
+        <v>0.9737230301466031</v>
       </c>
       <c r="M10">
-        <v>0.9901430048889168</v>
+        <v>0.990143004888918</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9663462838815707</v>
+        <v>0.9663462838815733</v>
       </c>
       <c r="D11">
-        <v>0.9927968504843483</v>
+        <v>0.9927968504843503</v>
       </c>
       <c r="E11">
-        <v>0.9545689669921945</v>
+        <v>0.9545689669921952</v>
       </c>
       <c r="F11">
-        <v>0.970484618445064</v>
+        <v>0.9704846184450658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032238356830426</v>
+        <v>1.032238356830427</v>
       </c>
       <c r="J11">
-        <v>0.9971893535204965</v>
+        <v>0.9971893535204986</v>
       </c>
       <c r="K11">
-        <v>1.007855898232959</v>
+        <v>1.007855898232961</v>
       </c>
       <c r="L11">
-        <v>0.9704017014605951</v>
+        <v>0.9704017014605959</v>
       </c>
       <c r="M11">
-        <v>0.9859854756372479</v>
+        <v>0.9859854756372498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645139743085271</v>
+        <v>0.9645139743085273</v>
       </c>
       <c r="D12">
-        <v>0.9914589369017859</v>
+        <v>0.9914589369017857</v>
       </c>
       <c r="E12">
-        <v>0.9530637468634839</v>
+        <v>0.9530637468634842</v>
       </c>
       <c r="F12">
-        <v>0.9686620621579612</v>
+        <v>0.9686620621579609</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.03157002073187</v>
       </c>
       <c r="J12">
-        <v>0.9958999782920718</v>
+        <v>0.9958999782920717</v>
       </c>
       <c r="K12">
         <v>1.006751620194249</v>
       </c>
       <c r="L12">
-        <v>0.9691490186351343</v>
+        <v>0.9691490186351344</v>
       </c>
       <c r="M12">
         <v>0.9844153248070586</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9649084766130911</v>
+        <v>0.964908476613092</v>
       </c>
       <c r="D13">
-        <v>0.9917469387026751</v>
+        <v>0.9917469387026761</v>
       </c>
       <c r="E13">
-        <v>0.953387628882654</v>
+        <v>0.9533876288826543</v>
       </c>
       <c r="F13">
-        <v>0.9690543563832567</v>
+        <v>0.9690543563832572</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031714015345067</v>
       </c>
       <c r="J13">
-        <v>0.9961776086659</v>
+        <v>0.996177608665901</v>
       </c>
       <c r="K13">
-        <v>1.006989409176668</v>
+        <v>1.006989409176669</v>
       </c>
       <c r="L13">
-        <v>0.9694186064076804</v>
+        <v>0.9694186064076805</v>
       </c>
       <c r="M13">
-        <v>0.9847533304450621</v>
+        <v>0.9847533304450625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9661954814560709</v>
+        <v>0.9661954814560717</v>
       </c>
       <c r="D14">
-        <v>0.992686713104643</v>
+        <v>0.9926867131046437</v>
       </c>
       <c r="E14">
-        <v>0.9544449965111674</v>
+        <v>0.9544449965111677</v>
       </c>
       <c r="F14">
-        <v>0.9703345702980855</v>
+        <v>0.9703345702980862</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.03218339648202</v>
       </c>
       <c r="J14">
-        <v>0.9970832463462643</v>
+        <v>0.9970832463462652</v>
       </c>
       <c r="K14">
         <v>1.007765029712393</v>
       </c>
       <c r="L14">
-        <v>0.9702985501955812</v>
+        <v>0.9702985501955815</v>
       </c>
       <c r="M14">
-        <v>0.9858562257203902</v>
+        <v>0.9858562257203908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9669842009580939</v>
+        <v>0.9669842009580947</v>
       </c>
       <c r="D15">
-        <v>0.9932627966907261</v>
+        <v>0.9932627966907267</v>
       </c>
       <c r="E15">
-        <v>0.95509355616046</v>
+        <v>0.9550935561604604</v>
       </c>
       <c r="F15">
-        <v>0.9711194412215328</v>
+        <v>0.9711194412215335</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032470756773657</v>
       </c>
       <c r="J15">
-        <v>0.9976381807987699</v>
+        <v>0.9976381807987708</v>
       </c>
       <c r="K15">
-        <v>1.008240253920899</v>
+        <v>1.0082402539209</v>
       </c>
       <c r="L15">
-        <v>0.9708381524044134</v>
+        <v>0.9708381524044138</v>
       </c>
       <c r="M15">
-        <v>0.9865322689741063</v>
+        <v>0.986532268974107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9715119719820594</v>
+        <v>0.9715119719820602</v>
       </c>
       <c r="D16">
-        <v>0.9965721653712681</v>
+        <v>0.9965721653712685</v>
       </c>
       <c r="E16">
-        <v>0.9588251503979061</v>
+        <v>0.9588251503979067</v>
       </c>
       <c r="F16">
-        <v>0.9756297644985003</v>
+        <v>0.9756297644985009</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03411590443406</v>
       </c>
       <c r="J16">
-        <v>1.000822733972115</v>
+        <v>1.000822733972116</v>
       </c>
       <c r="K16">
         <v>1.010966726836339</v>
       </c>
       <c r="L16">
-        <v>0.9739408705446584</v>
+        <v>0.9739408705446588</v>
       </c>
       <c r="M16">
-        <v>0.9904154088212159</v>
+        <v>0.9904154088212166</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,28 +988,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9742987097269776</v>
+        <v>0.9742987097269771</v>
       </c>
       <c r="D17">
-        <v>0.9986108599133747</v>
+        <v>0.9986108599133743</v>
       </c>
       <c r="E17">
-        <v>0.9611290693703711</v>
+        <v>0.9611290693703712</v>
       </c>
       <c r="F17">
-        <v>0.9784097443071087</v>
+        <v>0.9784097443071086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035124441543731</v>
+        <v>1.03512444154373</v>
       </c>
       <c r="J17">
-        <v>1.002781681638236</v>
+        <v>1.002781681638235</v>
       </c>
       <c r="K17">
         <v>1.012643289706137</v>
@@ -1018,7 +1018,7 @@
         <v>0.9758547930703152</v>
       </c>
       <c r="M17">
-        <v>0.9928072236551451</v>
+        <v>0.9928072236551448</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759056748188785</v>
+        <v>0.975905674818878</v>
       </c>
       <c r="D18">
-        <v>0.9997870848138275</v>
+        <v>0.9997870848138273</v>
       </c>
       <c r="E18">
-        <v>0.9624601440747226</v>
+        <v>0.9624601440747225</v>
       </c>
       <c r="F18">
         <v>0.9800142107286587</v>
@@ -1047,7 +1047,7 @@
         <v>1.03570453806261</v>
       </c>
       <c r="J18">
-        <v>1.00391089021106</v>
+        <v>1.003910890211059</v>
       </c>
       <c r="K18">
         <v>1.013609494463527</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764505405057974</v>
+        <v>0.9764505405057967</v>
       </c>
       <c r="D19">
         <v>1.000186001608486</v>
       </c>
       <c r="E19">
-        <v>0.9629118872666026</v>
+        <v>0.9629118872666019</v>
       </c>
       <c r="F19">
-        <v>0.9805584633270965</v>
+        <v>0.9805584633270957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035900975758669</v>
+        <v>1.035900975758668</v>
       </c>
       <c r="J19">
         <v>1.004293692630903</v>
       </c>
       <c r="K19">
-        <v>1.01393699899965</v>
+        <v>1.013936998999649</v>
       </c>
       <c r="L19">
-        <v>0.9773348921380165</v>
+        <v>0.9773348921380159</v>
       </c>
       <c r="M19">
-        <v>0.9946550420040025</v>
+        <v>0.9946550420040017</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740016483534564</v>
+        <v>0.9740016483534555</v>
       </c>
       <c r="D20">
-        <v>0.998393473427988</v>
+        <v>0.9983934734279876</v>
       </c>
       <c r="E20">
-        <v>0.9608832117377506</v>
+        <v>0.9608832117377502</v>
       </c>
       <c r="F20">
-        <v>0.9781132573086868</v>
+        <v>0.978113257308686</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035017085699589</v>
       </c>
       <c r="J20">
-        <v>1.002572903577215</v>
+        <v>1.002572903577214</v>
       </c>
       <c r="K20">
-        <v>1.012464630613199</v>
+        <v>1.012464630613198</v>
       </c>
       <c r="L20">
-        <v>0.9756506172239658</v>
+        <v>0.9756506172239654</v>
       </c>
       <c r="M20">
-        <v>0.9925521949594335</v>
+        <v>0.9925521949594327</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9658173800168034</v>
+        <v>0.9658173800168036</v>
       </c>
       <c r="D21">
-        <v>0.9924105889941895</v>
+        <v>0.9924105889941897</v>
       </c>
       <c r="E21">
-        <v>0.9541342394128842</v>
+        <v>0.9541342394128848</v>
       </c>
       <c r="F21">
-        <v>0.9699583982956093</v>
+        <v>0.9699583982956098</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032045560651086</v>
       </c>
       <c r="J21">
-        <v>0.9968171990374001</v>
+        <v>0.9968171990374004</v>
       </c>
       <c r="K21">
         <v>1.007537185880774</v>
       </c>
       <c r="L21">
-        <v>0.9700399647111531</v>
+        <v>0.9700399647111536</v>
       </c>
       <c r="M21">
-        <v>0.9855321806867118</v>
+        <v>0.9855321806867122</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9604881288547102</v>
+        <v>0.9604881288547089</v>
       </c>
       <c r="D22">
-        <v>0.988521693499083</v>
+        <v>0.9885216934990816</v>
       </c>
       <c r="E22">
-        <v>0.9497647139756391</v>
+        <v>0.9497647139756381</v>
       </c>
       <c r="F22">
-        <v>0.9646621192078662</v>
+        <v>0.9646621192078647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030097569164482</v>
+        <v>1.030097569164481</v>
       </c>
       <c r="J22">
-        <v>0.9930661173104454</v>
+        <v>0.9930661173104439</v>
       </c>
       <c r="K22">
-        <v>1.004324019609728</v>
+        <v>1.004324019609727</v>
       </c>
       <c r="L22">
-        <v>0.9664016466634243</v>
+        <v>0.9664016466634235</v>
       </c>
       <c r="M22">
-        <v>0.9809677063131822</v>
+        <v>0.9809677063131806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633315331164054</v>
+        <v>0.9633315331164053</v>
       </c>
       <c r="D23">
-        <v>0.9905958938238436</v>
+        <v>0.9905958938238437</v>
       </c>
       <c r="E23">
         <v>0.9520936209567336</v>
       </c>
       <c r="F23">
-        <v>0.9674865934753949</v>
+        <v>0.967486593475395</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.9950677629116107</v>
       </c>
       <c r="K23">
-        <v>1.006038787351007</v>
+        <v>1.006038787351006</v>
       </c>
       <c r="L23">
         <v>0.9683413749012134</v>
       </c>
       <c r="M23">
-        <v>0.9834023964917017</v>
+        <v>0.983402396491702</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741359345686977</v>
+        <v>0.9741359345686968</v>
       </c>
       <c r="D24">
-        <v>0.9984917408078824</v>
+        <v>0.9984917408078814</v>
       </c>
       <c r="E24">
-        <v>0.9609943435404049</v>
+        <v>0.9609943435404044</v>
       </c>
       <c r="F24">
-        <v>0.9782472795446221</v>
+        <v>0.9782472795446212</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035065620355691</v>
       </c>
       <c r="J24">
-        <v>1.00266728272442</v>
+        <v>1.002667282724419</v>
       </c>
       <c r="K24">
-        <v>1.012545395040509</v>
+        <v>1.012545395040508</v>
       </c>
       <c r="L24">
-        <v>0.9757429100711432</v>
+        <v>0.9757429100711427</v>
       </c>
       <c r="M24">
-        <v>0.9926674784347538</v>
+        <v>0.992667478434753</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,31 +1295,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859548486078268</v>
+        <v>0.9859548486078277</v>
       </c>
       <c r="D25">
-        <v>1.00715213538056</v>
+        <v>1.007152135380561</v>
       </c>
       <c r="E25">
-        <v>0.9708268491164009</v>
+        <v>0.9708268491164014</v>
       </c>
       <c r="F25">
-        <v>0.990071565981212</v>
+        <v>0.9900715659812128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039305280003171</v>
+        <v>1.039305280003172</v>
       </c>
       <c r="J25">
-        <v>1.010964312858472</v>
+        <v>1.010964312858473</v>
       </c>
       <c r="K25">
-        <v>1.019640429042431</v>
+        <v>1.019640429042432</v>
       </c>
       <c r="L25">
-        <v>0.9838955776028447</v>
+        <v>0.9838955776028451</v>
       </c>
       <c r="M25">
         <v>1.002825988512995</v>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948775588209989</v>
+        <v>0.9948775588209987</v>
       </c>
       <c r="D2">
         <v>1.013703766160869</v>
       </c>
       <c r="E2">
-        <v>0.978319862061123</v>
+        <v>0.9783198620611234</v>
       </c>
       <c r="F2">
-        <v>0.9990374575329469</v>
+        <v>0.9990374575329471</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.024975430811689</v>
       </c>
       <c r="L2">
-        <v>0.990089733245779</v>
+        <v>0.9900897332457795</v>
       </c>
       <c r="M2">
         <v>1.010510218409019</v>
@@ -465,7 +465,7 @@
         <v>1.018275469669689</v>
       </c>
       <c r="E3">
-        <v>0.9835797126117907</v>
+        <v>0.9835797126117911</v>
       </c>
       <c r="F3">
         <v>1.005307413106185</v>
@@ -483,7 +483,7 @@
         <v>1.028679732923623</v>
       </c>
       <c r="L3">
-        <v>0.9944270967877455</v>
+        <v>0.994427096787746</v>
       </c>
       <c r="M3">
         <v>1.015872832035788</v>
@@ -503,7 +503,7 @@
         <v>1.021154040384656</v>
       </c>
       <c r="E4">
-        <v>0.9869059782434476</v>
+        <v>0.9869059782434477</v>
       </c>
       <c r="F4">
         <v>1.009262071816874</v>
@@ -521,7 +521,7 @@
         <v>1.031003686574582</v>
       </c>
       <c r="L4">
-        <v>0.9971650485012374</v>
+        <v>0.9971650485012377</v>
       </c>
       <c r="M4">
         <v>1.019249982430947</v>
@@ -538,7 +538,7 @@
         <v>1.006628794410515</v>
       </c>
       <c r="D5">
-        <v>1.022345967109279</v>
+        <v>1.022345967109278</v>
       </c>
       <c r="E5">
         <v>0.9882867360849037</v>
@@ -559,7 +559,7 @@
         <v>1.031963941901689</v>
       </c>
       <c r="L5">
-        <v>0.9983004087936693</v>
+        <v>0.9983004087936691</v>
       </c>
       <c r="M5">
         <v>1.020648540185988</v>
@@ -576,7 +576,7 @@
         <v>1.006899302881483</v>
       </c>
       <c r="D6">
-        <v>1.022545051444789</v>
+        <v>1.022545051444788</v>
       </c>
       <c r="E6">
         <v>0.9885175635649286</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046624373419509</v>
+        <v>1.046624373419508</v>
       </c>
       <c r="J6">
-        <v>1.025602023850258</v>
+        <v>1.025602023850257</v>
       </c>
       <c r="K6">
         <v>1.032124212087593</v>
       </c>
       <c r="L6">
-        <v>0.9984901425159398</v>
+        <v>0.9984901425159399</v>
       </c>
       <c r="M6">
         <v>1.02088214968448</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005030829499192</v>
+        <v>1.005030829499191</v>
       </c>
       <c r="D7">
         <v>1.021170037511465</v>
       </c>
       <c r="E7">
-        <v>0.9869244960495089</v>
+        <v>0.9869244960495097</v>
       </c>
       <c r="F7">
         <v>1.009284065103822</v>
@@ -632,10 +632,10 @@
         <v>1.024300671853945</v>
       </c>
       <c r="K7">
-        <v>1.031016582374226</v>
+        <v>1.031016582374225</v>
       </c>
       <c r="L7">
-        <v>0.9971802798750001</v>
+        <v>0.9971802798750007</v>
       </c>
       <c r="M7">
         <v>1.019268752012485</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997002942766379</v>
+        <v>0.997002942766378</v>
       </c>
       <c r="D8">
-        <v>1.015265806231498</v>
+        <v>1.015265806231497</v>
       </c>
       <c r="E8">
-        <v>0.9801139889454399</v>
+        <v>0.9801139889454393</v>
       </c>
       <c r="F8">
-        <v>1.001178365004399</v>
+        <v>1.001178365004398</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.043201775227256</v>
       </c>
       <c r="J8">
-        <v>1.018698441930607</v>
+        <v>1.018698441930606</v>
       </c>
       <c r="K8">
-        <v>1.026242887938922</v>
+        <v>1.026242887938921</v>
       </c>
       <c r="L8">
-        <v>0.9915702412545818</v>
+        <v>0.9915702412545813</v>
       </c>
       <c r="M8">
         <v>1.012342398211588</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819442702342622</v>
+        <v>0.9819442702342629</v>
       </c>
       <c r="D9">
-        <v>1.004210891771655</v>
+        <v>1.004210891771656</v>
       </c>
       <c r="E9">
-        <v>0.9674787748284772</v>
+        <v>0.9674787748284776</v>
       </c>
       <c r="F9">
-        <v>0.9860527278111367</v>
+        <v>0.9860527278111371</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037874082873424</v>
+        <v>1.037874082873425</v>
       </c>
       <c r="J9">
         <v>1.008151139692818</v>
       </c>
       <c r="K9">
-        <v>1.017236017646105</v>
+        <v>1.017236017646106</v>
       </c>
       <c r="L9">
-        <v>0.9811224850202926</v>
+        <v>0.9811224850202928</v>
       </c>
       <c r="M9">
-        <v>0.999376216919612</v>
+        <v>0.9993762169196124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9711944880277777</v>
+        <v>0.971194488027777</v>
       </c>
       <c r="D10">
-        <v>0.9963399915682813</v>
+        <v>0.9963399915682803</v>
       </c>
       <c r="E10">
-        <v>0.9585630227903005</v>
+        <v>0.9585630227902993</v>
       </c>
       <c r="F10">
-        <v>0.9753132441505393</v>
+        <v>0.9753132441505379</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034000805652725</v>
+        <v>1.034000805652724</v>
       </c>
       <c r="J10">
-        <v>1.000599502917539</v>
+        <v>1.000599502917538</v>
       </c>
       <c r="K10">
-        <v>1.010775644539948</v>
+        <v>1.010775644539947</v>
       </c>
       <c r="L10">
-        <v>0.9737230301466031</v>
+        <v>0.9737230301466019</v>
       </c>
       <c r="M10">
-        <v>0.990143004888918</v>
+        <v>0.9901430048889168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9663462838815733</v>
+        <v>0.9663462838815707</v>
       </c>
       <c r="D11">
-        <v>0.9927968504843503</v>
+        <v>0.9927968504843483</v>
       </c>
       <c r="E11">
-        <v>0.9545689669921952</v>
+        <v>0.9545689669921945</v>
       </c>
       <c r="F11">
-        <v>0.9704846184450658</v>
+        <v>0.970484618445064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032238356830427</v>
+        <v>1.032238356830426</v>
       </c>
       <c r="J11">
-        <v>0.9971893535204986</v>
+        <v>0.9971893535204965</v>
       </c>
       <c r="K11">
-        <v>1.007855898232961</v>
+        <v>1.007855898232959</v>
       </c>
       <c r="L11">
-        <v>0.9704017014605959</v>
+        <v>0.9704017014605951</v>
       </c>
       <c r="M11">
-        <v>0.9859854756372498</v>
+        <v>0.9859854756372479</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645139743085273</v>
+        <v>0.9645139743085271</v>
       </c>
       <c r="D12">
-        <v>0.9914589369017857</v>
+        <v>0.9914589369017859</v>
       </c>
       <c r="E12">
-        <v>0.9530637468634842</v>
+        <v>0.9530637468634839</v>
       </c>
       <c r="F12">
-        <v>0.9686620621579609</v>
+        <v>0.9686620621579612</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.03157002073187</v>
       </c>
       <c r="J12">
-        <v>0.9958999782920717</v>
+        <v>0.9958999782920718</v>
       </c>
       <c r="K12">
         <v>1.006751620194249</v>
       </c>
       <c r="L12">
-        <v>0.9691490186351344</v>
+        <v>0.9691490186351343</v>
       </c>
       <c r="M12">
         <v>0.9844153248070586</v>
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.964908476613092</v>
+        <v>0.9649084766130911</v>
       </c>
       <c r="D13">
-        <v>0.9917469387026761</v>
+        <v>0.9917469387026751</v>
       </c>
       <c r="E13">
-        <v>0.9533876288826543</v>
+        <v>0.953387628882654</v>
       </c>
       <c r="F13">
-        <v>0.9690543563832572</v>
+        <v>0.9690543563832567</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031714015345067</v>
       </c>
       <c r="J13">
-        <v>0.996177608665901</v>
+        <v>0.9961776086659</v>
       </c>
       <c r="K13">
-        <v>1.006989409176669</v>
+        <v>1.006989409176668</v>
       </c>
       <c r="L13">
-        <v>0.9694186064076805</v>
+        <v>0.9694186064076804</v>
       </c>
       <c r="M13">
-        <v>0.9847533304450625</v>
+        <v>0.9847533304450621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9661954814560717</v>
+        <v>0.9661954814560709</v>
       </c>
       <c r="D14">
-        <v>0.9926867131046437</v>
+        <v>0.992686713104643</v>
       </c>
       <c r="E14">
-        <v>0.9544449965111677</v>
+        <v>0.9544449965111674</v>
       </c>
       <c r="F14">
-        <v>0.9703345702980862</v>
+        <v>0.9703345702980855</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.03218339648202</v>
       </c>
       <c r="J14">
-        <v>0.9970832463462652</v>
+        <v>0.9970832463462643</v>
       </c>
       <c r="K14">
         <v>1.007765029712393</v>
       </c>
       <c r="L14">
-        <v>0.9702985501955815</v>
+        <v>0.9702985501955812</v>
       </c>
       <c r="M14">
-        <v>0.9858562257203908</v>
+        <v>0.9858562257203902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9669842009580947</v>
+        <v>0.9669842009580939</v>
       </c>
       <c r="D15">
-        <v>0.9932627966907267</v>
+        <v>0.9932627966907261</v>
       </c>
       <c r="E15">
-        <v>0.9550935561604604</v>
+        <v>0.95509355616046</v>
       </c>
       <c r="F15">
-        <v>0.9711194412215335</v>
+        <v>0.9711194412215328</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032470756773657</v>
       </c>
       <c r="J15">
-        <v>0.9976381807987708</v>
+        <v>0.9976381807987699</v>
       </c>
       <c r="K15">
-        <v>1.0082402539209</v>
+        <v>1.008240253920899</v>
       </c>
       <c r="L15">
-        <v>0.9708381524044138</v>
+        <v>0.9708381524044134</v>
       </c>
       <c r="M15">
-        <v>0.986532268974107</v>
+        <v>0.9865322689741063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9715119719820602</v>
+        <v>0.9715119719820594</v>
       </c>
       <c r="D16">
-        <v>0.9965721653712685</v>
+        <v>0.9965721653712681</v>
       </c>
       <c r="E16">
-        <v>0.9588251503979067</v>
+        <v>0.9588251503979061</v>
       </c>
       <c r="F16">
-        <v>0.9756297644985009</v>
+        <v>0.9756297644985003</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03411590443406</v>
       </c>
       <c r="J16">
-        <v>1.000822733972116</v>
+        <v>1.000822733972115</v>
       </c>
       <c r="K16">
         <v>1.010966726836339</v>
       </c>
       <c r="L16">
-        <v>0.9739408705446588</v>
+        <v>0.9739408705446584</v>
       </c>
       <c r="M16">
-        <v>0.9904154088212166</v>
+        <v>0.9904154088212159</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,28 +988,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9742987097269771</v>
+        <v>0.9742987097269776</v>
       </c>
       <c r="D17">
-        <v>0.9986108599133743</v>
+        <v>0.9986108599133747</v>
       </c>
       <c r="E17">
-        <v>0.9611290693703712</v>
+        <v>0.9611290693703711</v>
       </c>
       <c r="F17">
-        <v>0.9784097443071086</v>
+        <v>0.9784097443071087</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03512444154373</v>
+        <v>1.035124441543731</v>
       </c>
       <c r="J17">
-        <v>1.002781681638235</v>
+        <v>1.002781681638236</v>
       </c>
       <c r="K17">
         <v>1.012643289706137</v>
@@ -1018,7 +1018,7 @@
         <v>0.9758547930703152</v>
       </c>
       <c r="M17">
-        <v>0.9928072236551448</v>
+        <v>0.9928072236551451</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.975905674818878</v>
+        <v>0.9759056748188785</v>
       </c>
       <c r="D18">
-        <v>0.9997870848138273</v>
+        <v>0.9997870848138275</v>
       </c>
       <c r="E18">
-        <v>0.9624601440747225</v>
+        <v>0.9624601440747226</v>
       </c>
       <c r="F18">
         <v>0.9800142107286587</v>
@@ -1047,7 +1047,7 @@
         <v>1.03570453806261</v>
       </c>
       <c r="J18">
-        <v>1.003910890211059</v>
+        <v>1.00391089021106</v>
       </c>
       <c r="K18">
         <v>1.013609494463527</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764505405057967</v>
+        <v>0.9764505405057974</v>
       </c>
       <c r="D19">
         <v>1.000186001608486</v>
       </c>
       <c r="E19">
-        <v>0.9629118872666019</v>
+        <v>0.9629118872666026</v>
       </c>
       <c r="F19">
-        <v>0.9805584633270957</v>
+        <v>0.9805584633270965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035900975758668</v>
+        <v>1.035900975758669</v>
       </c>
       <c r="J19">
         <v>1.004293692630903</v>
       </c>
       <c r="K19">
-        <v>1.013936998999649</v>
+        <v>1.01393699899965</v>
       </c>
       <c r="L19">
-        <v>0.9773348921380159</v>
+        <v>0.9773348921380165</v>
       </c>
       <c r="M19">
-        <v>0.9946550420040017</v>
+        <v>0.9946550420040025</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740016483534555</v>
+        <v>0.9740016483534564</v>
       </c>
       <c r="D20">
-        <v>0.9983934734279876</v>
+        <v>0.998393473427988</v>
       </c>
       <c r="E20">
-        <v>0.9608832117377502</v>
+        <v>0.9608832117377506</v>
       </c>
       <c r="F20">
-        <v>0.978113257308686</v>
+        <v>0.9781132573086868</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035017085699589</v>
       </c>
       <c r="J20">
-        <v>1.002572903577214</v>
+        <v>1.002572903577215</v>
       </c>
       <c r="K20">
-        <v>1.012464630613198</v>
+        <v>1.012464630613199</v>
       </c>
       <c r="L20">
-        <v>0.9756506172239654</v>
+        <v>0.9756506172239658</v>
       </c>
       <c r="M20">
-        <v>0.9925521949594327</v>
+        <v>0.9925521949594335</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9658173800168036</v>
+        <v>0.9658173800168034</v>
       </c>
       <c r="D21">
-        <v>0.9924105889941897</v>
+        <v>0.9924105889941895</v>
       </c>
       <c r="E21">
-        <v>0.9541342394128848</v>
+        <v>0.9541342394128842</v>
       </c>
       <c r="F21">
-        <v>0.9699583982956098</v>
+        <v>0.9699583982956093</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032045560651086</v>
       </c>
       <c r="J21">
-        <v>0.9968171990374004</v>
+        <v>0.9968171990374001</v>
       </c>
       <c r="K21">
         <v>1.007537185880774</v>
       </c>
       <c r="L21">
-        <v>0.9700399647111536</v>
+        <v>0.9700399647111531</v>
       </c>
       <c r="M21">
-        <v>0.9855321806867122</v>
+        <v>0.9855321806867118</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9604881288547089</v>
+        <v>0.9604881288547102</v>
       </c>
       <c r="D22">
-        <v>0.9885216934990816</v>
+        <v>0.988521693499083</v>
       </c>
       <c r="E22">
-        <v>0.9497647139756381</v>
+        <v>0.9497647139756391</v>
       </c>
       <c r="F22">
-        <v>0.9646621192078647</v>
+        <v>0.9646621192078662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030097569164481</v>
+        <v>1.030097569164482</v>
       </c>
       <c r="J22">
-        <v>0.9930661173104439</v>
+        <v>0.9930661173104454</v>
       </c>
       <c r="K22">
-        <v>1.004324019609727</v>
+        <v>1.004324019609728</v>
       </c>
       <c r="L22">
-        <v>0.9664016466634235</v>
+        <v>0.9664016466634243</v>
       </c>
       <c r="M22">
-        <v>0.9809677063131806</v>
+        <v>0.9809677063131822</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633315331164053</v>
+        <v>0.9633315331164054</v>
       </c>
       <c r="D23">
-        <v>0.9905958938238437</v>
+        <v>0.9905958938238436</v>
       </c>
       <c r="E23">
         <v>0.9520936209567336</v>
       </c>
       <c r="F23">
-        <v>0.967486593475395</v>
+        <v>0.9674865934753949</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.9950677629116107</v>
       </c>
       <c r="K23">
-        <v>1.006038787351006</v>
+        <v>1.006038787351007</v>
       </c>
       <c r="L23">
         <v>0.9683413749012134</v>
       </c>
       <c r="M23">
-        <v>0.983402396491702</v>
+        <v>0.9834023964917017</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741359345686968</v>
+        <v>0.9741359345686977</v>
       </c>
       <c r="D24">
-        <v>0.9984917408078814</v>
+        <v>0.9984917408078824</v>
       </c>
       <c r="E24">
-        <v>0.9609943435404044</v>
+        <v>0.9609943435404049</v>
       </c>
       <c r="F24">
-        <v>0.9782472795446212</v>
+        <v>0.9782472795446221</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.035065620355691</v>
       </c>
       <c r="J24">
-        <v>1.002667282724419</v>
+        <v>1.00266728272442</v>
       </c>
       <c r="K24">
-        <v>1.012545395040508</v>
+        <v>1.012545395040509</v>
       </c>
       <c r="L24">
-        <v>0.9757429100711427</v>
+        <v>0.9757429100711432</v>
       </c>
       <c r="M24">
-        <v>0.992667478434753</v>
+        <v>0.9926674784347538</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,31 +1295,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859548486078277</v>
+        <v>0.9859548486078268</v>
       </c>
       <c r="D25">
-        <v>1.007152135380561</v>
+        <v>1.00715213538056</v>
       </c>
       <c r="E25">
-        <v>0.9708268491164014</v>
+        <v>0.9708268491164009</v>
       </c>
       <c r="F25">
-        <v>0.9900715659812128</v>
+        <v>0.990071565981212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039305280003172</v>
+        <v>1.039305280003171</v>
       </c>
       <c r="J25">
-        <v>1.010964312858473</v>
+        <v>1.010964312858472</v>
       </c>
       <c r="K25">
-        <v>1.019640429042432</v>
+        <v>1.019640429042431</v>
       </c>
       <c r="L25">
-        <v>0.9838955776028451</v>
+        <v>0.9838955776028447</v>
       </c>
       <c r="M25">
         <v>1.002825988512995</v>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948775588209987</v>
+        <v>0.9948806223593012</v>
       </c>
       <c r="D2">
-        <v>1.013703766160869</v>
+        <v>1.013706453880242</v>
       </c>
       <c r="E2">
-        <v>0.9783198620611234</v>
+        <v>0.978322703812855</v>
       </c>
       <c r="F2">
-        <v>0.9990374575329471</v>
+        <v>0.9990397361001562</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042457893352194</v>
+        <v>1.042459395553318</v>
       </c>
       <c r="J2">
-        <v>1.017212568187322</v>
+        <v>1.017215538791452</v>
       </c>
       <c r="K2">
-        <v>1.024975430811689</v>
+        <v>1.024978082348989</v>
       </c>
       <c r="L2">
-        <v>0.9900897332457795</v>
+        <v>0.9900925331483381</v>
       </c>
       <c r="M2">
-        <v>1.010510218409019</v>
+        <v>1.010512465155001</v>
+      </c>
+      <c r="N2">
+        <v>1.013682120653419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001096176968386</v>
+        <v>1.001096091249107</v>
       </c>
       <c r="D3">
-        <v>1.018275469669689</v>
+        <v>1.018275686804341</v>
       </c>
       <c r="E3">
-        <v>0.9835797126117911</v>
+        <v>0.9835813991642031</v>
       </c>
       <c r="F3">
-        <v>1.005307413106185</v>
+        <v>1.005307586273446</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044625946789882</v>
+        <v>1.044626024084903</v>
       </c>
       <c r="J3">
-        <v>1.021557003634934</v>
+        <v>1.021556920245488</v>
       </c>
       <c r="K3">
-        <v>1.028679732923623</v>
+        <v>1.02867994740265</v>
       </c>
       <c r="L3">
-        <v>0.994427096787746</v>
+        <v>0.9944287608464755</v>
       </c>
       <c r="M3">
-        <v>1.015872832035788</v>
+        <v>1.015873003016443</v>
+      </c>
+      <c r="N3">
+        <v>1.016660510700949</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005009089196123</v>
+        <v>1.005007048354622</v>
       </c>
       <c r="D4">
-        <v>1.021154040384656</v>
+        <v>1.02115272028504</v>
       </c>
       <c r="E4">
-        <v>0.9869059782434477</v>
+        <v>0.9869069548002956</v>
       </c>
       <c r="F4">
-        <v>1.009262071816874</v>
+        <v>1.009260941836777</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045976246623403</v>
+        <v>1.045975435774905</v>
       </c>
       <c r="J4">
-        <v>1.024285524115938</v>
+        <v>1.024283534779314</v>
       </c>
       <c r="K4">
-        <v>1.031003686574582</v>
+        <v>1.031002381602748</v>
       </c>
       <c r="L4">
-        <v>0.9971650485012377</v>
+        <v>0.9971660128790694</v>
       </c>
       <c r="M4">
-        <v>1.019249982430947</v>
+        <v>1.019248865780476</v>
+      </c>
+      <c r="N4">
+        <v>1.018530170799164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006628794410515</v>
+        <v>1.006625949901456</v>
       </c>
       <c r="D5">
-        <v>1.022345967109278</v>
+        <v>1.022344014386994</v>
       </c>
       <c r="E5">
-        <v>0.9882867360849037</v>
+        <v>0.9882874224574514</v>
       </c>
       <c r="F5">
-        <v>1.010901273438256</v>
+        <v>1.010899608654202</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046531792590591</v>
+        <v>1.046530615877808</v>
       </c>
       <c r="J5">
-        <v>1.025413685295496</v>
+        <v>1.0254109103139</v>
       </c>
       <c r="K5">
-        <v>1.031963941901689</v>
+        <v>1.031962010935675</v>
       </c>
       <c r="L5">
-        <v>0.9983004087936691</v>
+        <v>0.9983010868508184</v>
       </c>
       <c r="M5">
-        <v>1.020648540185988</v>
+        <v>1.020646894471969</v>
+      </c>
+      <c r="N5">
+        <v>1.019302989273648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006899302881483</v>
+        <v>1.006896324462721</v>
       </c>
       <c r="D6">
-        <v>1.022545051444788</v>
+        <v>1.022542993272473</v>
       </c>
       <c r="E6">
-        <v>0.9885175635649286</v>
+        <v>0.988518201682377</v>
       </c>
       <c r="F6">
-        <v>1.011175166967214</v>
+        <v>1.011173413121073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046624373419508</v>
+        <v>1.046623135700661</v>
       </c>
       <c r="J6">
-        <v>1.025602023850257</v>
+        <v>1.025599117838591</v>
       </c>
       <c r="K6">
-        <v>1.032124212087593</v>
+        <v>1.032122176737203</v>
       </c>
       <c r="L6">
-        <v>0.9984901425159399</v>
+        <v>0.9984907729405106</v>
       </c>
       <c r="M6">
-        <v>1.02088214968448</v>
+        <v>1.020880415828835</v>
+      </c>
+      <c r="N6">
+        <v>1.01943199207257</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005030829499191</v>
+        <v>1.005028777849176</v>
       </c>
       <c r="D7">
-        <v>1.021170037511465</v>
+        <v>1.021168708906495</v>
       </c>
       <c r="E7">
-        <v>0.9869244960495097</v>
+        <v>0.9869254686971427</v>
       </c>
       <c r="F7">
-        <v>1.009284065103822</v>
+        <v>1.009282927927824</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04598371688651</v>
+        <v>1.04598290112055</v>
       </c>
       <c r="J7">
-        <v>1.024300671853945</v>
+        <v>1.024298671959628</v>
       </c>
       <c r="K7">
-        <v>1.031016582374225</v>
+        <v>1.031015268988828</v>
       </c>
       <c r="L7">
-        <v>0.9971802798750007</v>
+        <v>0.997181240397031</v>
       </c>
       <c r="M7">
-        <v>1.019268752012485</v>
+        <v>1.019267628245777</v>
+      </c>
+      <c r="N7">
+        <v>1.018540548298888</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997002942766378</v>
+        <v>0.9970049239174685</v>
       </c>
       <c r="D8">
-        <v>1.015265806231497</v>
+        <v>1.01526764561578</v>
       </c>
       <c r="E8">
-        <v>0.9801139889454393</v>
+        <v>0.9801164320973156</v>
       </c>
       <c r="F8">
-        <v>1.001178365004398</v>
+        <v>1.001179919069023</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043201775227256</v>
+        <v>1.043202788485109</v>
       </c>
       <c r="J8">
-        <v>1.018698441930606</v>
+        <v>1.018700365137755</v>
       </c>
       <c r="K8">
-        <v>1.026242887938921</v>
+        <v>1.026244703337449</v>
       </c>
       <c r="L8">
-        <v>0.9915702412545813</v>
+        <v>0.9915726495920923</v>
       </c>
       <c r="M8">
-        <v>1.012342398211588</v>
+        <v>1.012343931287727</v>
+      </c>
+      <c r="N8">
+        <v>1.014700969860444</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819442702342629</v>
+        <v>0.9819540682308924</v>
       </c>
       <c r="D9">
-        <v>1.004210891771656</v>
+        <v>1.004218837846135</v>
       </c>
       <c r="E9">
-        <v>0.9674787748284776</v>
+        <v>0.96748413101088</v>
       </c>
       <c r="F9">
-        <v>0.9860527278111371</v>
+        <v>0.986059535129142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037874082873425</v>
+        <v>1.0378786086308</v>
       </c>
       <c r="J9">
-        <v>1.008151139692818</v>
+        <v>1.0081605735508</v>
       </c>
       <c r="K9">
-        <v>1.017236017646106</v>
+        <v>1.017243836185408</v>
       </c>
       <c r="L9">
-        <v>0.9811224850202928</v>
+        <v>0.9811277465619634</v>
       </c>
       <c r="M9">
-        <v>0.9993762169196124</v>
+        <v>0.9993829097291129</v>
+      </c>
+      <c r="N9">
+        <v>1.007465261346479</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971194488027777</v>
+        <v>0.9712101001918595</v>
       </c>
       <c r="D10">
-        <v>0.9963399915682803</v>
+        <v>0.9963524480046969</v>
       </c>
       <c r="E10">
-        <v>0.9585630227902993</v>
+        <v>0.9585705935463945</v>
       </c>
       <c r="F10">
-        <v>0.9753132441505379</v>
+        <v>0.9753239905657419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034000805652724</v>
+        <v>1.034007916112148</v>
       </c>
       <c r="J10">
-        <v>1.000599502917538</v>
+        <v>1.000614442002344</v>
       </c>
       <c r="K10">
-        <v>1.010775644539947</v>
+        <v>1.010787873919564</v>
       </c>
       <c r="L10">
-        <v>0.9737230301466019</v>
+        <v>0.9737304482051113</v>
       </c>
       <c r="M10">
-        <v>0.9901430048889168</v>
+        <v>0.9901535441971121</v>
+      </c>
+      <c r="N10">
+        <v>1.002280645478537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9663462838815707</v>
+        <v>0.9663645906575021</v>
       </c>
       <c r="D11">
-        <v>0.9927968504843483</v>
+        <v>0.9928113874745248</v>
       </c>
       <c r="E11">
-        <v>0.9545689669921945</v>
+        <v>0.9545775766506779</v>
       </c>
       <c r="F11">
-        <v>0.970484618445064</v>
+        <v>0.9704971996133112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032238356830426</v>
+        <v>1.032246657149876</v>
       </c>
       <c r="J11">
-        <v>0.9971893535204965</v>
+        <v>0.9972068204573604</v>
       </c>
       <c r="K11">
-        <v>1.007855898232959</v>
+        <v>1.007870155848313</v>
       </c>
       <c r="L11">
-        <v>0.9704017014605951</v>
+        <v>0.9704101276240346</v>
       </c>
       <c r="M11">
-        <v>0.9859854756372479</v>
+        <v>0.9859978001355535</v>
+      </c>
+      <c r="N11">
+        <v>0.9999386112266496</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645139743085271</v>
+        <v>0.9645333120352039</v>
       </c>
       <c r="D12">
-        <v>0.9914589369017859</v>
+        <v>0.991474268215581</v>
       </c>
       <c r="E12">
-        <v>0.9530637468634839</v>
+        <v>0.9530727559932539</v>
       </c>
       <c r="F12">
-        <v>0.9686620621579612</v>
+        <v>0.9686753468218569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03157002073187</v>
+        <v>1.031578774946329</v>
       </c>
       <c r="J12">
-        <v>0.9958999782920718</v>
+        <v>0.9959184084341144</v>
       </c>
       <c r="K12">
-        <v>1.006751620194249</v>
+        <v>1.006766651111402</v>
       </c>
       <c r="L12">
-        <v>0.9691490186351343</v>
+        <v>0.9691578318404017</v>
       </c>
       <c r="M12">
-        <v>0.9844153248070586</v>
+        <v>0.9844283327291665</v>
+      </c>
+      <c r="N12">
+        <v>0.9990529885858529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9649084766130911</v>
+        <v>0.9649275917760161</v>
       </c>
       <c r="D13">
-        <v>0.9917469387026751</v>
+        <v>0.9917620986161843</v>
       </c>
       <c r="E13">
-        <v>0.953387628882654</v>
+        <v>0.9533965516823103</v>
       </c>
       <c r="F13">
-        <v>0.9690543563832567</v>
+        <v>0.9690674891038769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031714015345067</v>
+        <v>1.031722671634525</v>
       </c>
       <c r="J13">
-        <v>0.9961776086659</v>
+        <v>0.9961958310537495</v>
       </c>
       <c r="K13">
-        <v>1.006989409176668</v>
+        <v>1.007004273278279</v>
       </c>
       <c r="L13">
-        <v>0.9694186064076804</v>
+        <v>0.9694273359963024</v>
       </c>
       <c r="M13">
-        <v>0.9847533304450621</v>
+        <v>0.9847661908089058</v>
+      </c>
+      <c r="N13">
+        <v>0.9992436865890015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9661954814560709</v>
+        <v>0.9662138728157543</v>
       </c>
       <c r="D14">
-        <v>0.992686713104643</v>
+        <v>0.992701315300128</v>
       </c>
       <c r="E14">
-        <v>0.9544449965111674</v>
+        <v>0.9544536389031958</v>
       </c>
       <c r="F14">
-        <v>0.9703345702980855</v>
+        <v>0.9703472091525245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03218339648202</v>
+        <v>1.03219173406896</v>
       </c>
       <c r="J14">
-        <v>0.9970832463462643</v>
+        <v>0.9971007923908483</v>
       </c>
       <c r="K14">
-        <v>1.007765029712393</v>
+        <v>1.007779350829078</v>
       </c>
       <c r="L14">
-        <v>0.9702985501955812</v>
+        <v>0.9703070080862323</v>
       </c>
       <c r="M14">
-        <v>0.9858562257203902</v>
+        <v>0.9858686062811873</v>
+      </c>
+      <c r="N14">
+        <v>0.9998657322120831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9669842009580939</v>
+        <v>0.9670021504534022</v>
       </c>
       <c r="D15">
-        <v>0.9932627966907261</v>
+        <v>0.9932770581848208</v>
       </c>
       <c r="E15">
-        <v>0.95509355616046</v>
+        <v>0.955102027634056</v>
       </c>
       <c r="F15">
-        <v>0.9711194412215328</v>
+        <v>0.9711317787866747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032470756773657</v>
+        <v>1.032478899620598</v>
       </c>
       <c r="J15">
-        <v>0.9976381807987699</v>
+        <v>0.997655313423664</v>
       </c>
       <c r="K15">
-        <v>1.008240253920899</v>
+        <v>1.008254243196633</v>
       </c>
       <c r="L15">
-        <v>0.9708381524044134</v>
+        <v>0.9708464446071705</v>
       </c>
       <c r="M15">
-        <v>0.9865322689741063</v>
+        <v>0.9865443566822338</v>
+      </c>
+      <c r="N15">
+        <v>1.000246881278941</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9715119719820594</v>
+        <v>0.9715274093264262</v>
       </c>
       <c r="D16">
-        <v>0.9965721653712681</v>
+        <v>0.9965844866081836</v>
       </c>
       <c r="E16">
-        <v>0.9588251503979061</v>
+        <v>0.9588326540182274</v>
       </c>
       <c r="F16">
-        <v>0.9756297644985003</v>
+        <v>0.9756403920791705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03411590443406</v>
+        <v>1.034122937522808</v>
       </c>
       <c r="J16">
-        <v>1.000822733972115</v>
+        <v>1.000837508540527</v>
       </c>
       <c r="K16">
-        <v>1.010966726836339</v>
+        <v>1.010978824277689</v>
       </c>
       <c r="L16">
-        <v>0.9739408705446584</v>
+        <v>0.9739482233807096</v>
       </c>
       <c r="M16">
-        <v>0.9904154088212159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9904258323652515</v>
+      </c>
+      <c r="N16">
+        <v>1.002433942064145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9742987097269776</v>
+        <v>0.9743126209395581</v>
       </c>
       <c r="D17">
-        <v>0.9986108599133747</v>
+        <v>0.9986219997780138</v>
       </c>
       <c r="E17">
-        <v>0.9611290693703711</v>
+        <v>0.9611359883215422</v>
       </c>
       <c r="F17">
-        <v>0.9784097443071087</v>
+        <v>0.9784193355286332</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035124441543731</v>
+        <v>1.035130798296524</v>
       </c>
       <c r="J17">
-        <v>1.002781681638236</v>
+        <v>1.002795017349852</v>
       </c>
       <c r="K17">
-        <v>1.012643289706137</v>
+        <v>1.012654233546401</v>
       </c>
       <c r="L17">
-        <v>0.9758547930703152</v>
+        <v>0.9758615774997575</v>
       </c>
       <c r="M17">
-        <v>0.9928072236551451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9928166368911354</v>
+      </c>
+      <c r="N17">
+        <v>1.003779098827595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759056748188785</v>
+        <v>0.9759187126865261</v>
       </c>
       <c r="D18">
-        <v>0.9997870848138275</v>
+        <v>0.9997975477332828</v>
       </c>
       <c r="E18">
-        <v>0.9624601440747226</v>
+        <v>0.962466729597333</v>
       </c>
       <c r="F18">
-        <v>0.9800142107286587</v>
+        <v>0.9800232097203597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03570453806261</v>
+        <v>1.035710507040214</v>
       </c>
       <c r="J18">
-        <v>1.00391089021106</v>
+        <v>1.003923400365693</v>
       </c>
       <c r="K18">
-        <v>1.013609494463527</v>
+        <v>1.013619776682301</v>
       </c>
       <c r="L18">
-        <v>0.9769599320891743</v>
+        <v>0.9769663920403899</v>
       </c>
       <c r="M18">
-        <v>0.9941870791839441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9941959144901261</v>
+      </c>
+      <c r="N18">
+        <v>1.004554421721666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764505405057974</v>
+        <v>0.9764632833422904</v>
       </c>
       <c r="D19">
-        <v>1.000186001608486</v>
+        <v>1.00019623569858</v>
       </c>
       <c r="E19">
-        <v>0.9629118872666026</v>
+        <v>0.9629183603441173</v>
       </c>
       <c r="F19">
-        <v>0.9805584633270965</v>
+        <v>0.9805672623911674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035900975758669</v>
+        <v>1.03590681361808</v>
       </c>
       <c r="J19">
-        <v>1.004293692630903</v>
+        <v>1.004305923543324</v>
       </c>
       <c r="K19">
-        <v>1.01393699899965</v>
+        <v>1.013947057471323</v>
       </c>
       <c r="L19">
-        <v>0.9773348921380165</v>
+        <v>0.9773412426090319</v>
       </c>
       <c r="M19">
-        <v>0.9946550420040025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9946636821132551</v>
+      </c>
+      <c r="N19">
+        <v>1.004817243615547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740016483534564</v>
+        <v>0.9740157215422987</v>
       </c>
       <c r="D20">
-        <v>0.998393473427988</v>
+        <v>0.9984047387722103</v>
       </c>
       <c r="E20">
-        <v>0.9608832117377506</v>
+        <v>0.9608901926218781</v>
       </c>
       <c r="F20">
-        <v>0.9781132573086868</v>
+        <v>0.9781229584360958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035017085699589</v>
+        <v>1.035023514312875</v>
       </c>
       <c r="J20">
-        <v>1.002572903577215</v>
+        <v>1.00258639222948</v>
       </c>
       <c r="K20">
-        <v>1.012464630613199</v>
+        <v>1.012475697045307</v>
       </c>
       <c r="L20">
-        <v>0.9756506172239658</v>
+        <v>0.9756574618978539</v>
       </c>
       <c r="M20">
-        <v>0.9925521949594335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9925617154004575</v>
+      </c>
+      <c r="N20">
+        <v>1.00363574415174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9658173800168034</v>
+        <v>0.9658359836584574</v>
       </c>
       <c r="D21">
-        <v>0.9924105889941895</v>
+        <v>0.9924253548091893</v>
       </c>
       <c r="E21">
-        <v>0.9541342394128842</v>
+        <v>0.9541429639894</v>
       </c>
       <c r="F21">
-        <v>0.9699583982956093</v>
+        <v>0.9699711819515077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032045560651086</v>
+        <v>1.032053991747184</v>
       </c>
       <c r="J21">
-        <v>0.9968171990374001</v>
+        <v>0.9968349435559546</v>
       </c>
       <c r="K21">
-        <v>1.007537185880774</v>
+        <v>1.007551666324085</v>
       </c>
       <c r="L21">
-        <v>0.9700399647111531</v>
+        <v>0.970048502250086</v>
       </c>
       <c r="M21">
-        <v>0.9855321806867118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9855447019557472</v>
+      </c>
+      <c r="N21">
+        <v>0.9996829977990986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9604881288547102</v>
+        <v>0.9605097569729805</v>
       </c>
       <c r="D22">
-        <v>0.988521693499083</v>
+        <v>0.9885387861065477</v>
       </c>
       <c r="E22">
-        <v>0.9497647139756391</v>
+        <v>0.9497746143969152</v>
       </c>
       <c r="F22">
-        <v>0.9646621192078662</v>
+        <v>0.9646769697822285</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030097569164482</v>
+        <v>1.030107329114229</v>
       </c>
       <c r="J22">
-        <v>0.9930661173104454</v>
+        <v>0.9930866795463539</v>
       </c>
       <c r="K22">
-        <v>1.004324019609728</v>
+        <v>1.004340763168765</v>
       </c>
       <c r="L22">
-        <v>0.9664016466634243</v>
+        <v>0.9664113222744828</v>
       </c>
       <c r="M22">
-        <v>0.9809677063131822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9809822333642099</v>
+      </c>
+      <c r="N22">
+        <v>0.9971063499160369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633315331164054</v>
+        <v>0.9633515399179516</v>
       </c>
       <c r="D23">
-        <v>0.9905958938238436</v>
+        <v>0.9906117401379211</v>
       </c>
       <c r="E23">
-        <v>0.9520936209567336</v>
+        <v>0.9521028899139281</v>
       </c>
       <c r="F23">
-        <v>0.9674865934753949</v>
+        <v>0.9675003351494127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0311381049295</v>
+        <v>1.031147153319706</v>
       </c>
       <c r="J23">
-        <v>0.9950677629116107</v>
+        <v>0.9950868169964421</v>
       </c>
       <c r="K23">
-        <v>1.006038787351007</v>
+        <v>1.006054319332411</v>
       </c>
       <c r="L23">
-        <v>0.9683413749012134</v>
+        <v>0.968350439676777</v>
       </c>
       <c r="M23">
-        <v>0.9834023964917017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9834158480698529</v>
+      </c>
+      <c r="N23">
+        <v>0.9984813452033512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741359345686977</v>
+        <v>0.9741499345157104</v>
       </c>
       <c r="D24">
-        <v>0.9984917408078824</v>
+        <v>0.9985029494159734</v>
       </c>
       <c r="E24">
-        <v>0.9609943435404049</v>
+        <v>0.9610012964163274</v>
       </c>
       <c r="F24">
-        <v>0.9782472795446221</v>
+        <v>0.9782569309725948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035065620355691</v>
+        <v>1.035072016477644</v>
       </c>
       <c r="J24">
-        <v>1.00266728272442</v>
+        <v>1.002680702227233</v>
       </c>
       <c r="K24">
-        <v>1.012545395040509</v>
+        <v>1.012556406044019</v>
       </c>
       <c r="L24">
-        <v>0.9757429100711432</v>
+        <v>0.9757497275014354</v>
       </c>
       <c r="M24">
-        <v>0.9926674784347538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9926769503994881</v>
+      </c>
+      <c r="N24">
+        <v>1.003700548568543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859548486078268</v>
+        <v>0.9859625297098543</v>
       </c>
       <c r="D25">
-        <v>1.00715213538056</v>
+        <v>1.007158432358422</v>
       </c>
       <c r="E25">
-        <v>0.9708268491164009</v>
+        <v>0.9708314087660932</v>
       </c>
       <c r="F25">
-        <v>0.990071565981212</v>
+        <v>0.9900769458303776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039305280003171</v>
+        <v>1.039308858788343</v>
       </c>
       <c r="J25">
-        <v>1.010964312858472</v>
+        <v>1.01097172505513</v>
       </c>
       <c r="K25">
-        <v>1.019640429042431</v>
+        <v>1.019646630030882</v>
       </c>
       <c r="L25">
-        <v>0.9838955776028447</v>
+        <v>0.9839000608819304</v>
       </c>
       <c r="M25">
-        <v>1.002825988512995</v>
+        <v>1.002831282687461</v>
+      </c>
+      <c r="N25">
+        <v>1.009395903164458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9948806223593012</v>
+        <v>1.029174455556537</v>
       </c>
       <c r="D2">
-        <v>1.013706453880242</v>
+        <v>1.047816042668295</v>
       </c>
       <c r="E2">
-        <v>0.978322703812855</v>
+        <v>1.038981837552868</v>
       </c>
       <c r="F2">
-        <v>0.9990397361001562</v>
+        <v>1.052462628391109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042459395553318</v>
+        <v>1.062770067578159</v>
       </c>
       <c r="J2">
-        <v>1.017215538791452</v>
+        <v>1.050516252252739</v>
       </c>
       <c r="K2">
-        <v>1.024978082348989</v>
+        <v>1.058647116763586</v>
       </c>
       <c r="L2">
-        <v>0.9900925331483381</v>
+        <v>1.049923547578336</v>
       </c>
       <c r="M2">
-        <v>1.010512465155001</v>
+        <v>1.063236437758947</v>
       </c>
       <c r="N2">
-        <v>1.013682120653419</v>
+        <v>1.052008105826836</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001096091249107</v>
+        <v>1.03584539892886</v>
       </c>
       <c r="D3">
-        <v>1.018275686804341</v>
+        <v>1.053104114567282</v>
       </c>
       <c r="E3">
-        <v>0.9835813991642031</v>
+        <v>1.044358023871195</v>
       </c>
       <c r="F3">
-        <v>1.005307586273446</v>
+        <v>1.058125611111224</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044626024084903</v>
+        <v>1.06528230366802</v>
       </c>
       <c r="J3">
-        <v>1.021556920245488</v>
+        <v>1.05540439113513</v>
       </c>
       <c r="K3">
-        <v>1.02867994740265</v>
+        <v>1.063099781397596</v>
       </c>
       <c r="L3">
-        <v>0.9944287608464755</v>
+        <v>1.054453132017157</v>
       </c>
       <c r="M3">
-        <v>1.015873003016443</v>
+        <v>1.068065098589824</v>
       </c>
       <c r="N3">
-        <v>1.016660510700949</v>
+        <v>1.056903186427117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005007048354622</v>
+        <v>1.040046305326346</v>
       </c>
       <c r="D4">
-        <v>1.02115272028504</v>
+        <v>1.056436848373036</v>
       </c>
       <c r="E4">
-        <v>0.9869069548002956</v>
+        <v>1.04775436949365</v>
       </c>
       <c r="F4">
-        <v>1.009260941836777</v>
+        <v>1.061699464986141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045975435774905</v>
+        <v>1.066851795330306</v>
       </c>
       <c r="J4">
-        <v>1.024283534779314</v>
+        <v>1.058478278516008</v>
       </c>
       <c r="K4">
-        <v>1.031002381602748</v>
+        <v>1.065898698961827</v>
       </c>
       <c r="L4">
-        <v>0.9971660128790694</v>
+        <v>1.057308679692578</v>
       </c>
       <c r="M4">
-        <v>1.019248865780476</v>
+        <v>1.071106173193901</v>
       </c>
       <c r="N4">
-        <v>1.018530170799164</v>
+        <v>1.059981439080655</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006625949901456</v>
+        <v>1.041786043986629</v>
       </c>
       <c r="D5">
-        <v>1.022344014386994</v>
+        <v>1.057817600897503</v>
       </c>
       <c r="E5">
-        <v>0.9882874224574514</v>
+        <v>1.049163386507403</v>
       </c>
       <c r="F5">
-        <v>1.010899608654202</v>
+        <v>1.063181267454381</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046530615877808</v>
+        <v>1.06749870829068</v>
       </c>
       <c r="J5">
-        <v>1.0254109103139</v>
+        <v>1.059750186808694</v>
       </c>
       <c r="K5">
-        <v>1.031962010935675</v>
+        <v>1.067056541471548</v>
       </c>
       <c r="L5">
-        <v>0.9983010868508184</v>
+        <v>1.058491913568643</v>
       </c>
       <c r="M5">
-        <v>1.020646894471969</v>
+        <v>1.07236557601159</v>
       </c>
       <c r="N5">
-        <v>1.019302989273648</v>
+        <v>1.061255153629008</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006896324462721</v>
+        <v>1.042076647984442</v>
       </c>
       <c r="D6">
-        <v>1.022542993272473</v>
+        <v>1.058048270411377</v>
       </c>
       <c r="E6">
-        <v>0.988518201682377</v>
+        <v>1.049398889456295</v>
       </c>
       <c r="F6">
-        <v>1.011173413121073</v>
+        <v>1.063428886113875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046623135700661</v>
+        <v>1.067606585922523</v>
       </c>
       <c r="J6">
-        <v>1.025599117838591</v>
+        <v>1.059962579121827</v>
       </c>
       <c r="K6">
-        <v>1.032122176737203</v>
+        <v>1.06724986870333</v>
       </c>
       <c r="L6">
-        <v>0.9984907729405106</v>
+        <v>1.058689595436556</v>
       </c>
       <c r="M6">
-        <v>1.020880415828835</v>
+        <v>1.072575942287198</v>
       </c>
       <c r="N6">
-        <v>1.01943199207257</v>
+        <v>1.061467847563587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005028777849176</v>
+        <v>1.04006965349956</v>
       </c>
       <c r="D7">
-        <v>1.021168708906495</v>
+        <v>1.056455376690007</v>
       </c>
       <c r="E7">
-        <v>0.9869254686971427</v>
+        <v>1.047773269572565</v>
       </c>
       <c r="F7">
-        <v>1.009282927927824</v>
+        <v>1.061719344737049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04598290112055</v>
+        <v>1.066860489435959</v>
       </c>
       <c r="J7">
-        <v>1.024298671959628</v>
+        <v>1.058495352563629</v>
       </c>
       <c r="K7">
-        <v>1.031015268988828</v>
+        <v>1.065914242964522</v>
       </c>
       <c r="L7">
-        <v>0.997181240397031</v>
+        <v>1.057324556823921</v>
       </c>
       <c r="M7">
-        <v>1.019267628245777</v>
+        <v>1.071123075164842</v>
       </c>
       <c r="N7">
-        <v>1.018540548298888</v>
+        <v>1.059998537375383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970049239174685</v>
+        <v>1.031453728284296</v>
       </c>
       <c r="D8">
-        <v>1.01526764561578</v>
+        <v>1.049622211412796</v>
       </c>
       <c r="E8">
-        <v>0.9801164320973156</v>
+        <v>1.040816383108531</v>
       </c>
       <c r="F8">
-        <v>1.001179919069023</v>
+        <v>1.054395826826368</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043202788485109</v>
+        <v>1.063631033776802</v>
       </c>
       <c r="J8">
-        <v>1.018700365137755</v>
+        <v>1.052187268796552</v>
       </c>
       <c r="K8">
-        <v>1.026244703337449</v>
+        <v>1.06016949039985</v>
       </c>
       <c r="L8">
-        <v>0.9915726495920923</v>
+        <v>1.051470460122542</v>
       </c>
       <c r="M8">
-        <v>1.012343931287727</v>
+        <v>1.064886135041726</v>
       </c>
       <c r="N8">
-        <v>1.014700969860444</v>
+        <v>1.05368149540581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819540682308924</v>
+        <v>1.015318856860485</v>
       </c>
       <c r="D9">
-        <v>1.004218837846135</v>
+        <v>1.036851756472455</v>
       </c>
       <c r="E9">
-        <v>0.96748413101088</v>
+        <v>1.027881325150102</v>
       </c>
       <c r="F9">
-        <v>0.986059535129142</v>
+        <v>1.040748338465419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0378786086308</v>
+        <v>1.057484870022411</v>
       </c>
       <c r="J9">
-        <v>1.0081605735508</v>
+        <v>1.04034202685344</v>
       </c>
       <c r="K9">
-        <v>1.017243836185408</v>
+        <v>1.049373952348785</v>
       </c>
       <c r="L9">
-        <v>0.9811277465619634</v>
+        <v>1.040537682382161</v>
       </c>
       <c r="M9">
-        <v>0.9993829097291129</v>
+        <v>1.053213171833067</v>
       </c>
       <c r="N9">
-        <v>1.007465261346479</v>
+        <v>1.04181943186047</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9712101001918595</v>
+        <v>1.003818444401747</v>
       </c>
       <c r="D10">
-        <v>0.9963524480046969</v>
+        <v>1.027773767209776</v>
       </c>
       <c r="E10">
-        <v>0.9585705935463945</v>
+        <v>1.018734152627328</v>
       </c>
       <c r="F10">
-        <v>0.9753239905657419</v>
+        <v>1.031074408670392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034007916112148</v>
+        <v>1.053041317633112</v>
       </c>
       <c r="J10">
-        <v>1.000614442002344</v>
+        <v>1.031881378337001</v>
       </c>
       <c r="K10">
-        <v>1.010787873919564</v>
+        <v>1.041659033500117</v>
       </c>
       <c r="L10">
-        <v>0.9737304482051113</v>
+        <v>1.032773198675274</v>
       </c>
       <c r="M10">
-        <v>0.9901535441971121</v>
+        <v>1.04490439103508</v>
       </c>
       <c r="N10">
-        <v>1.002280645478537</v>
+        <v>1.033346768252688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9663645906575021</v>
+        <v>0.9986357468240715</v>
       </c>
       <c r="D11">
-        <v>0.9928113874745248</v>
+        <v>1.023690230358525</v>
       </c>
       <c r="E11">
-        <v>0.9545775766506779</v>
+        <v>1.014631520416305</v>
       </c>
       <c r="F11">
-        <v>0.9704971996133112</v>
+        <v>1.026729535512121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032246657149876</v>
+        <v>1.051024946476445</v>
       </c>
       <c r="J11">
-        <v>0.9972068204573604</v>
+        <v>1.028065390662919</v>
       </c>
       <c r="K11">
-        <v>1.007870155848313</v>
+        <v>1.038178797688721</v>
       </c>
       <c r="L11">
-        <v>0.9704101276240346</v>
+        <v>1.029282683881225</v>
       </c>
       <c r="M11">
-        <v>0.9859978001355535</v>
+        <v>1.041164383184946</v>
       </c>
       <c r="N11">
-        <v>0.9999386112266496</v>
+        <v>1.029525361438409</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9645333120352039</v>
+        <v>0.9966776156293862</v>
       </c>
       <c r="D12">
-        <v>0.991474268215581</v>
+        <v>1.022148670340252</v>
       </c>
       <c r="E12">
-        <v>0.9530727559932539</v>
+        <v>1.013084623743068</v>
       </c>
       <c r="F12">
-        <v>0.9686753468218569</v>
+        <v>1.025090351742852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031578774946329</v>
+        <v>1.050261132483686</v>
       </c>
       <c r="J12">
-        <v>0.9959184084341144</v>
+        <v>1.026623253354849</v>
       </c>
       <c r="K12">
-        <v>1.006766651111402</v>
+        <v>1.036863492762502</v>
       </c>
       <c r="L12">
-        <v>0.9691578318404017</v>
+        <v>1.027965364260719</v>
       </c>
       <c r="M12">
-        <v>0.9844283327291665</v>
+        <v>1.039752145844858</v>
       </c>
       <c r="N12">
-        <v>0.9990529885858529</v>
+        <v>1.028081176129946</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9649275917760161</v>
+        <v>0.9970991810686958</v>
       </c>
       <c r="D13">
-        <v>0.9917620986161843</v>
+        <v>1.02248049154571</v>
       </c>
       <c r="E13">
-        <v>0.9533965516823103</v>
+        <v>1.013417508016462</v>
       </c>
       <c r="F13">
-        <v>0.9690674891038769</v>
+        <v>1.025443139519418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031722671634525</v>
+        <v>1.050425661805625</v>
       </c>
       <c r="J13">
-        <v>0.9961958310537495</v>
+        <v>1.026933746001078</v>
       </c>
       <c r="K13">
-        <v>1.007004273278279</v>
+        <v>1.037146680252129</v>
       </c>
       <c r="L13">
-        <v>0.9694273359963024</v>
+        <v>1.028248900137753</v>
       </c>
       <c r="M13">
-        <v>0.9847661908089058</v>
+        <v>1.040056146438901</v>
       </c>
       <c r="N13">
-        <v>0.9992436865890015</v>
+        <v>1.028392109711347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9662138728157543</v>
+        <v>0.998474577041922</v>
       </c>
       <c r="D14">
-        <v>0.992701315300128</v>
+        <v>1.023563320644949</v>
       </c>
       <c r="E14">
-        <v>0.9544536389031958</v>
+        <v>1.014504132964789</v>
       </c>
       <c r="F14">
-        <v>0.9703472091525245</v>
+        <v>1.026594567794616</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03219173406896</v>
+        <v>1.050962118232277</v>
       </c>
       <c r="J14">
-        <v>0.9971007923908483</v>
+        <v>1.027946698346162</v>
       </c>
       <c r="K14">
-        <v>1.007779350829078</v>
+        <v>1.038070544971943</v>
       </c>
       <c r="L14">
-        <v>0.9703070080862323</v>
+        <v>1.029174227067658</v>
       </c>
       <c r="M14">
-        <v>0.9858686062811873</v>
+        <v>1.041048127295486</v>
       </c>
       <c r="N14">
-        <v>0.9998657322120831</v>
+        <v>1.029406500564948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9670021504534022</v>
+        <v>0.9993175435266507</v>
       </c>
       <c r="D15">
-        <v>0.9932770581848208</v>
+        <v>1.024227149923828</v>
       </c>
       <c r="E15">
-        <v>0.955102027634056</v>
+        <v>1.015170537726719</v>
       </c>
       <c r="F15">
-        <v>0.9711317787866747</v>
+        <v>1.027300588370788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032478899620598</v>
+        <v>1.051290648652157</v>
       </c>
       <c r="J15">
-        <v>0.997655313423664</v>
+        <v>1.028567480149802</v>
       </c>
       <c r="K15">
-        <v>1.008254243196633</v>
+        <v>1.038636723800066</v>
       </c>
       <c r="L15">
-        <v>0.9708464446071705</v>
+        <v>1.029741549751199</v>
       </c>
       <c r="M15">
-        <v>0.9865443566822338</v>
+        <v>1.041656214753856</v>
       </c>
       <c r="N15">
-        <v>1.000246881278941</v>
+        <v>1.030028163949954</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9715274093264262</v>
+        <v>1.004157915413273</v>
       </c>
       <c r="D16">
-        <v>0.9965844866081836</v>
+        <v>1.028041410656217</v>
       </c>
       <c r="E16">
-        <v>0.9588326540182274</v>
+        <v>1.019003302435108</v>
       </c>
       <c r="F16">
-        <v>0.9756403920791705</v>
+        <v>1.031359322023269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034122937522808</v>
+        <v>1.053173112038587</v>
       </c>
       <c r="J16">
-        <v>1.000837508540527</v>
+        <v>1.032131271084068</v>
       </c>
       <c r="K16">
-        <v>1.010978824277689</v>
+        <v>1.041886929808381</v>
       </c>
       <c r="L16">
-        <v>0.9739482233807096</v>
+        <v>1.033002022922513</v>
       </c>
       <c r="M16">
-        <v>0.9904258323652515</v>
+        <v>1.045149468300007</v>
       </c>
       <c r="N16">
-        <v>1.002433942064145</v>
+        <v>1.033597015876119</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743126209395581</v>
+        <v>1.007138101873734</v>
       </c>
       <c r="D17">
-        <v>0.9986219997780138</v>
+        <v>1.030391893819177</v>
       </c>
       <c r="E17">
-        <v>0.9611359883215422</v>
+        <v>1.021368383084029</v>
       </c>
       <c r="F17">
-        <v>0.9784193355286332</v>
+        <v>1.033862236552661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035130798296524</v>
+        <v>1.054328565847878</v>
       </c>
       <c r="J17">
-        <v>1.002795017349852</v>
+        <v>1.034324710248616</v>
       </c>
       <c r="K17">
-        <v>1.012654233546401</v>
+        <v>1.043887231529869</v>
       </c>
       <c r="L17">
-        <v>0.9758615774997575</v>
+        <v>1.035011840866729</v>
       </c>
       <c r="M17">
-        <v>0.9928166368911354</v>
+        <v>1.047301492183421</v>
       </c>
       <c r="N17">
-        <v>1.003779098827595</v>
+        <v>1.035793569975872</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759187126865261</v>
+        <v>1.008857000279286</v>
       </c>
       <c r="D18">
-        <v>0.9997975477332828</v>
+        <v>1.031748288993539</v>
       </c>
       <c r="E18">
-        <v>0.962466729597333</v>
+        <v>1.022734331418571</v>
       </c>
       <c r="F18">
-        <v>0.9800232097203597</v>
+        <v>1.035307229033071</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035710507040214</v>
+        <v>1.05499369001233</v>
       </c>
       <c r="J18">
-        <v>1.003923400365693</v>
+        <v>1.035589526710217</v>
       </c>
       <c r="K18">
-        <v>1.013619776682301</v>
+        <v>1.045040619751738</v>
       </c>
       <c r="L18">
-        <v>0.9769663920403899</v>
+        <v>1.03617184956159</v>
       </c>
       <c r="M18">
-        <v>0.9941959144901261</v>
+        <v>1.048543127365523</v>
       </c>
       <c r="N18">
-        <v>1.004554421721666</v>
+        <v>1.037060182621925</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764632833422904</v>
+        <v>1.009439883727398</v>
       </c>
       <c r="D19">
-        <v>1.00019623569858</v>
+        <v>1.032208359783071</v>
       </c>
       <c r="E19">
-        <v>0.9629183603441173</v>
+        <v>1.023197832268946</v>
       </c>
       <c r="F19">
-        <v>0.9805672623911674</v>
+        <v>1.035797457740047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03590681361808</v>
+        <v>1.055219010055314</v>
       </c>
       <c r="J19">
-        <v>1.004305923543324</v>
+        <v>1.036018375072143</v>
       </c>
       <c r="K19">
-        <v>1.013947057471323</v>
+        <v>1.045431676445571</v>
       </c>
       <c r="L19">
-        <v>0.9773412426090319</v>
+        <v>1.036565341649357</v>
       </c>
       <c r="M19">
-        <v>0.9946636821132551</v>
+        <v>1.048964232957505</v>
       </c>
       <c r="N19">
-        <v>1.004817243615547</v>
+        <v>1.037489639997714</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740157215422987</v>
+        <v>1.006820379644072</v>
       </c>
       <c r="D20">
-        <v>0.9984047387722103</v>
+        <v>1.030141232019306</v>
       </c>
       <c r="E20">
-        <v>0.9608901926218781</v>
+        <v>1.021116046831312</v>
       </c>
       <c r="F20">
-        <v>0.9781229584360958</v>
+        <v>1.033595253119978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035023514312875</v>
+        <v>1.054205516915203</v>
       </c>
       <c r="J20">
-        <v>1.00258639222948</v>
+        <v>1.034090895408054</v>
       </c>
       <c r="K20">
-        <v>1.012475697045307</v>
+        <v>1.043674010445762</v>
       </c>
       <c r="L20">
-        <v>0.9756574618978539</v>
+        <v>1.034797487287612</v>
       </c>
       <c r="M20">
-        <v>0.9925617154004575</v>
+        <v>1.047072018935537</v>
       </c>
       <c r="N20">
-        <v>1.00363574415174</v>
+        <v>1.035559423091417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9658359836584574</v>
+        <v>0.9980704914412066</v>
       </c>
       <c r="D21">
-        <v>0.9924253548091893</v>
+        <v>1.023245153290854</v>
       </c>
       <c r="E21">
-        <v>0.9541429639894</v>
+        <v>1.014184798260199</v>
       </c>
       <c r="F21">
-        <v>0.9699711819515077</v>
+        <v>1.026256215410893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032053991747184</v>
+        <v>1.050804563357967</v>
       </c>
       <c r="J21">
-        <v>0.9968349435559546</v>
+        <v>1.027649106714393</v>
       </c>
       <c r="K21">
-        <v>1.007551666324085</v>
+        <v>1.037799127293902</v>
       </c>
       <c r="L21">
-        <v>0.970048502250086</v>
+        <v>1.028902327948169</v>
       </c>
       <c r="M21">
-        <v>0.9855447019557472</v>
+        <v>1.040756663695897</v>
       </c>
       <c r="N21">
-        <v>0.9996829977990986</v>
+        <v>1.029108486318927</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9605097569729805</v>
+        <v>0.9923764058085445</v>
       </c>
       <c r="D22">
-        <v>0.9885387861065477</v>
+        <v>1.018765056550567</v>
       </c>
       <c r="E22">
-        <v>0.9497746143969152</v>
+        <v>1.009692824843656</v>
       </c>
       <c r="F22">
-        <v>0.9646769697822285</v>
+        <v>1.021494388193336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030107329114229</v>
+        <v>1.048579799369485</v>
       </c>
       <c r="J22">
-        <v>0.9930866795463539</v>
+        <v>1.023454891564979</v>
       </c>
       <c r="K22">
-        <v>1.004340763168765</v>
+        <v>1.033973719824088</v>
       </c>
       <c r="L22">
-        <v>0.9664113222744828</v>
+        <v>1.025074679822346</v>
       </c>
       <c r="M22">
-        <v>0.9809822333642099</v>
+        <v>1.036651733585677</v>
       </c>
       <c r="N22">
-        <v>0.9971063499160369</v>
+        <v>1.024908314902918</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9633515399179516</v>
+        <v>0.9954141444453569</v>
       </c>
       <c r="D23">
-        <v>0.9906117401379211</v>
+        <v>1.02115437263522</v>
       </c>
       <c r="E23">
-        <v>0.9521028899139281</v>
+        <v>1.012087420402886</v>
       </c>
       <c r="F23">
-        <v>0.9675003351494127</v>
+        <v>1.024033381037125</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031147153319706</v>
+        <v>1.049767739378007</v>
       </c>
       <c r="J23">
-        <v>0.9950868169964421</v>
+        <v>1.025692630521696</v>
       </c>
       <c r="K23">
-        <v>1.006054319332411</v>
+        <v>1.036014704953519</v>
       </c>
       <c r="L23">
-        <v>0.968350439676777</v>
+        <v>1.027115810994583</v>
       </c>
       <c r="M23">
-        <v>0.9834158480698529</v>
+        <v>1.038841160174113</v>
       </c>
       <c r="N23">
-        <v>0.9984813452033512</v>
+        <v>1.027149231705627</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741499345157104</v>
+        <v>1.006964004387102</v>
       </c>
       <c r="D24">
-        <v>0.9985029494159734</v>
+        <v>1.030254540287368</v>
       </c>
       <c r="E24">
-        <v>0.9610012964163274</v>
+        <v>1.021230108512053</v>
       </c>
       <c r="F24">
-        <v>0.9782569309725948</v>
+        <v>1.033715937395471</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035072016477644</v>
+        <v>1.054261144653714</v>
       </c>
       <c r="J24">
-        <v>1.002680702227233</v>
+        <v>1.03419659119155</v>
       </c>
       <c r="K24">
-        <v>1.012556406044019</v>
+        <v>1.043770397023846</v>
       </c>
       <c r="L24">
-        <v>0.9757497275014354</v>
+        <v>1.034894382294681</v>
       </c>
       <c r="M24">
-        <v>0.9926769503994881</v>
+        <v>1.0471757499361</v>
       </c>
       <c r="N24">
-        <v>1.003700548568543</v>
+        <v>1.035665268975049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859625297098543</v>
+        <v>1.019613007906079</v>
       </c>
       <c r="D25">
-        <v>1.007158432358422</v>
+        <v>1.040246850068975</v>
       </c>
       <c r="E25">
-        <v>0.9708314087660932</v>
+        <v>1.031312201806432</v>
       </c>
       <c r="F25">
-        <v>0.9900769458303776</v>
+        <v>1.044371952973473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039308858788343</v>
+        <v>1.059131645256605</v>
       </c>
       <c r="J25">
-        <v>1.01097172505513</v>
+        <v>1.043497876103019</v>
       </c>
       <c r="K25">
-        <v>1.019646630030882</v>
+        <v>1.052250935656708</v>
       </c>
       <c r="L25">
-        <v>0.9839000608819304</v>
+        <v>1.043443131845959</v>
       </c>
       <c r="M25">
-        <v>1.002831282687461</v>
+        <v>1.056318398905119</v>
       </c>
       <c r="N25">
-        <v>1.009395903164458</v>
+        <v>1.044979762777964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029174455556537</v>
+        <v>0.9960592396384201</v>
       </c>
       <c r="D2">
-        <v>1.047816042668295</v>
+        <v>1.018391669327988</v>
       </c>
       <c r="E2">
-        <v>1.038981837552868</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.052462628391109</v>
+        <v>1.022556844206151</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062770067578159</v>
+        <v>1.043260243334305</v>
       </c>
       <c r="J2">
-        <v>1.050516252252739</v>
+        <v>1.018358460452326</v>
       </c>
       <c r="K2">
-        <v>1.058647116763586</v>
+        <v>1.029600589945829</v>
       </c>
       <c r="L2">
-        <v>1.049923547578336</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.063236437758947</v>
+        <v>1.033710622383146</v>
       </c>
       <c r="N2">
-        <v>1.052008105826836</v>
+        <v>1.010122508383361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03584539892886</v>
+        <v>0.9997243634749637</v>
       </c>
       <c r="D3">
-        <v>1.053104114567282</v>
+        <v>1.020995895407649</v>
       </c>
       <c r="E3">
-        <v>1.044358023871195</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.058125611111224</v>
+        <v>1.025690563618314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06528230366802</v>
+        <v>1.043964614666526</v>
       </c>
       <c r="J3">
-        <v>1.05540439113513</v>
+        <v>1.020222545441466</v>
       </c>
       <c r="K3">
-        <v>1.063099781397596</v>
+        <v>1.031366997148718</v>
       </c>
       <c r="L3">
-        <v>1.054453132017157</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.068065098589824</v>
+        <v>1.036004951609588</v>
       </c>
       <c r="N3">
-        <v>1.056903186427117</v>
+        <v>1.010745913858504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040046305326346</v>
+        <v>1.002053980006118</v>
       </c>
       <c r="D4">
-        <v>1.056436848373036</v>
+        <v>1.022653556186163</v>
       </c>
       <c r="E4">
-        <v>1.04775436949365</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.061699464986141</v>
+        <v>1.027686624013378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066851795330306</v>
+        <v>1.044402459534197</v>
       </c>
       <c r="J4">
-        <v>1.058478278516008</v>
+        <v>1.021405290299818</v>
       </c>
       <c r="K4">
-        <v>1.065898698961827</v>
+        <v>1.032486049676065</v>
       </c>
       <c r="L4">
-        <v>1.057308679692578</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.071106173193901</v>
+        <v>1.037461996093789</v>
       </c>
       <c r="N4">
-        <v>1.059981439080655</v>
+        <v>1.011141363763866</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041786043986629</v>
+        <v>1.003023596946983</v>
       </c>
       <c r="D5">
-        <v>1.057817600897503</v>
+        <v>1.02334401950832</v>
       </c>
       <c r="E5">
-        <v>1.049163386507403</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.063181267454381</v>
+        <v>1.02851837989822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06749870829068</v>
+        <v>1.044582292292983</v>
       </c>
       <c r="J5">
-        <v>1.059750186808694</v>
+        <v>1.021897034889361</v>
       </c>
       <c r="K5">
-        <v>1.067056541471548</v>
+        <v>1.032950887858238</v>
       </c>
       <c r="L5">
-        <v>1.058491913568643</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.07236557601159</v>
+        <v>1.038068091904423</v>
       </c>
       <c r="N5">
-        <v>1.061255153629008</v>
+        <v>1.011305753857831</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042076647984442</v>
+        <v>1.003185836206093</v>
       </c>
       <c r="D6">
-        <v>1.058048270411377</v>
+        <v>1.023459579386906</v>
       </c>
       <c r="E6">
-        <v>1.049398889456295</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.063428886113875</v>
+        <v>1.02865760761379</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067606585922523</v>
+        <v>1.044612240095271</v>
       </c>
       <c r="J6">
-        <v>1.059962579121827</v>
+        <v>1.021979283247679</v>
       </c>
       <c r="K6">
-        <v>1.06724986870333</v>
+        <v>1.033028610504714</v>
       </c>
       <c r="L6">
-        <v>1.058689595436556</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.072575942287198</v>
+        <v>1.038169484257963</v>
       </c>
       <c r="N6">
-        <v>1.061467847563587</v>
+        <v>1.011333247986927</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04006965349956</v>
+        <v>1.002066974021735</v>
       </c>
       <c r="D7">
-        <v>1.056455376690007</v>
+        <v>1.02266280720605</v>
       </c>
       <c r="E7">
-        <v>1.047773269572565</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.061719344737049</v>
+        <v>1.027697766754436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066860489435959</v>
+        <v>1.044404879045549</v>
       </c>
       <c r="J7">
-        <v>1.058495352563629</v>
+        <v>1.021411882382866</v>
       </c>
       <c r="K7">
-        <v>1.065914242964522</v>
+        <v>1.032492282762851</v>
       </c>
       <c r="L7">
-        <v>1.057324556823921</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.071123075164842</v>
+        <v>1.037470119910899</v>
       </c>
       <c r="N7">
-        <v>1.059998537375383</v>
+        <v>1.011143567593831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031453728284296</v>
+        <v>0.9973067541305144</v>
       </c>
       <c r="D8">
-        <v>1.049622211412796</v>
+        <v>1.019277557434316</v>
       </c>
       <c r="E8">
-        <v>1.040816383108531</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.054395826826368</v>
+        <v>1.023622574451532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063631033776802</v>
+        <v>1.043502035694988</v>
       </c>
       <c r="J8">
-        <v>1.052187268796552</v>
+        <v>1.018993371226946</v>
       </c>
       <c r="K8">
-        <v>1.06016949039985</v>
+        <v>1.030202582998917</v>
       </c>
       <c r="L8">
-        <v>1.051470460122542</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.064886135041726</v>
+        <v>1.034491794668974</v>
       </c>
       <c r="N8">
-        <v>1.05368149540581</v>
+        <v>1.010334860444504</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015318856860485</v>
+        <v>0.9885834997137307</v>
       </c>
       <c r="D9">
-        <v>1.036851756472455</v>
+        <v>1.013094889259873</v>
       </c>
       <c r="E9">
-        <v>1.027881325150102</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.040748338465419</v>
+        <v>1.016190005383249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057484870022411</v>
+        <v>1.041771167052965</v>
       </c>
       <c r="J9">
-        <v>1.04034202685344</v>
+        <v>1.0145459468274</v>
       </c>
       <c r="K9">
-        <v>1.049373952348785</v>
+        <v>1.025979024522383</v>
       </c>
       <c r="L9">
-        <v>1.040537682382161</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.053213171833067</v>
+        <v>1.029025760757938</v>
       </c>
       <c r="N9">
-        <v>1.04181943186047</v>
+        <v>1.008847035402318</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003818444401747</v>
+        <v>0.9825224796544101</v>
       </c>
       <c r="D10">
-        <v>1.027773767209776</v>
+        <v>1.008816373879108</v>
       </c>
       <c r="E10">
-        <v>1.018734152627328</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.031074408670392</v>
+        <v>1.011052605831141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053041317633112</v>
+        <v>1.040519302238812</v>
       </c>
       <c r="J10">
-        <v>1.031881378337001</v>
+        <v>1.011447107381734</v>
       </c>
       <c r="K10">
-        <v>1.041659033500117</v>
+        <v>1.023028249843589</v>
       </c>
       <c r="L10">
-        <v>1.032773198675274</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.04490439103508</v>
+        <v>1.025225128952693</v>
       </c>
       <c r="N10">
-        <v>1.033346768252688</v>
+        <v>1.007809995298238</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9986357468240715</v>
+        <v>0.9798349585308885</v>
       </c>
       <c r="D11">
-        <v>1.023690230358525</v>
+        <v>1.006924057734339</v>
       </c>
       <c r="E11">
-        <v>1.014631520416305</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.026729535512121</v>
+        <v>1.008781679319906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051024946476445</v>
+        <v>1.039953075397727</v>
       </c>
       <c r="J11">
-        <v>1.028065390662919</v>
+        <v>1.010071372478332</v>
       </c>
       <c r="K11">
-        <v>1.038178797688721</v>
+        <v>1.021716567205528</v>
       </c>
       <c r="L11">
-        <v>1.029282683881225</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.041164383184946</v>
+        <v>1.023539864705345</v>
       </c>
       <c r="N11">
-        <v>1.029525361438409</v>
+        <v>1.007349534377023</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9966776156293862</v>
+        <v>0.9788267846166396</v>
       </c>
       <c r="D12">
-        <v>1.022148670340252</v>
+        <v>1.006214978859376</v>
       </c>
       <c r="E12">
-        <v>1.013084623743068</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.025090351742852</v>
+        <v>1.007930903443333</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050261132483686</v>
+        <v>1.039739039637504</v>
       </c>
       <c r="J12">
-        <v>1.026623253354849</v>
+        <v>1.009555073241658</v>
       </c>
       <c r="K12">
-        <v>1.036863492762502</v>
+        <v>1.021224070513766</v>
       </c>
       <c r="L12">
-        <v>1.027965364260719</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.039752145844858</v>
+        <v>1.022907721023242</v>
       </c>
       <c r="N12">
-        <v>1.028081176129946</v>
+        <v>1.007176720121799</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970991810686958</v>
+        <v>0.9790434969994156</v>
       </c>
       <c r="D13">
-        <v>1.02248049154571</v>
+        <v>1.006367362472624</v>
       </c>
       <c r="E13">
-        <v>1.013417508016462</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.025443139519418</v>
+        <v>1.008113730642952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050425661805625</v>
+        <v>1.039785120497335</v>
       </c>
       <c r="J13">
-        <v>1.026933746001078</v>
+        <v>1.009666063806625</v>
       </c>
       <c r="K13">
-        <v>1.037146680252129</v>
+        <v>1.021329954537106</v>
       </c>
       <c r="L13">
-        <v>1.028248900137753</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.040056146438901</v>
+        <v>1.023043600426781</v>
       </c>
       <c r="N13">
-        <v>1.028392109711347</v>
+        <v>1.007213870908604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.998474577041922</v>
+        <v>0.9797518273011767</v>
       </c>
       <c r="D14">
-        <v>1.023563320644949</v>
+        <v>1.00686557263931</v>
       </c>
       <c r="E14">
-        <v>1.014504132964789</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.026594567794616</v>
+        <v>1.008711503553664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050962118232277</v>
+        <v>1.039935459399663</v>
       </c>
       <c r="J14">
-        <v>1.027946698346162</v>
+        <v>1.010028804099479</v>
       </c>
       <c r="K14">
-        <v>1.038070544971943</v>
+        <v>1.021675966015688</v>
       </c>
       <c r="L14">
-        <v>1.029174227067658</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.041048127295486</v>
+        <v>1.023487738501081</v>
       </c>
       <c r="N14">
-        <v>1.029406500564948</v>
+        <v>1.007335286158522</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9993175435266507</v>
+        <v>0.9801869265266273</v>
       </c>
       <c r="D15">
-        <v>1.024227149923828</v>
+        <v>1.007171709404079</v>
       </c>
       <c r="E15">
-        <v>1.015170537726719</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.027300588370788</v>
+        <v>1.009078841449361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051290648652157</v>
+        <v>1.040027593439969</v>
       </c>
       <c r="J15">
-        <v>1.028567480149802</v>
+        <v>1.010251593388625</v>
       </c>
       <c r="K15">
-        <v>1.038636723800066</v>
+        <v>1.021888450158841</v>
       </c>
       <c r="L15">
-        <v>1.029741549751199</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.041656214753856</v>
+        <v>1.023760563475208</v>
       </c>
       <c r="N15">
-        <v>1.030028163949954</v>
+        <v>1.007409856465452</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004157915413273</v>
+        <v>0.9826994764219675</v>
       </c>
       <c r="D16">
-        <v>1.028041410656217</v>
+        <v>1.008941105465902</v>
       </c>
       <c r="E16">
-        <v>1.019003302435108</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.031359322023269</v>
+        <v>1.011202318458837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053173112038587</v>
+        <v>1.040556364742822</v>
       </c>
       <c r="J16">
-        <v>1.032131271084068</v>
+        <v>1.011537679434588</v>
       </c>
       <c r="K16">
-        <v>1.041886929808381</v>
+        <v>1.023114571341815</v>
       </c>
       <c r="L16">
-        <v>1.033002022922513</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.045149468300007</v>
+        <v>1.025336122510073</v>
       </c>
       <c r="N16">
-        <v>1.033597015876119</v>
+        <v>1.007840308717997</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007138101873734</v>
+        <v>0.9842583503642479</v>
       </c>
       <c r="D17">
-        <v>1.030391893819177</v>
+        <v>1.010040219126618</v>
       </c>
       <c r="E17">
-        <v>1.021368383084029</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.033862236552661</v>
+        <v>1.012521702883426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054328565847878</v>
+        <v>1.040881522590268</v>
       </c>
       <c r="J17">
-        <v>1.034324710248616</v>
+        <v>1.012335192789237</v>
       </c>
       <c r="K17">
-        <v>1.043887231529869</v>
+        <v>1.023874467663819</v>
       </c>
       <c r="L17">
-        <v>1.035011840866729</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.047301492183421</v>
+        <v>1.026313686481922</v>
       </c>
       <c r="N17">
-        <v>1.035793569975872</v>
+        <v>1.008107220008122</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008857000279286</v>
+        <v>0.9851615614788918</v>
       </c>
       <c r="D18">
-        <v>1.031748288993539</v>
+        <v>1.010677499772827</v>
       </c>
       <c r="E18">
-        <v>1.022734331418571</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.035307229033071</v>
+        <v>1.013286820489893</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05499369001233</v>
+        <v>1.041068856382461</v>
       </c>
       <c r="J18">
-        <v>1.035589526710217</v>
+        <v>1.01279711002269</v>
       </c>
       <c r="K18">
-        <v>1.045040619751738</v>
+        <v>1.02431443625665</v>
       </c>
       <c r="L18">
-        <v>1.03617184956159</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.048543127365523</v>
+        <v>1.026880080769761</v>
       </c>
       <c r="N18">
-        <v>1.037060182621925</v>
+        <v>1.008261807866721</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009439883727398</v>
+        <v>0.9854685191253192</v>
       </c>
       <c r="D19">
-        <v>1.032208359783071</v>
+        <v>1.010894155773999</v>
       </c>
       <c r="E19">
-        <v>1.023197832268946</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.035797457740047</v>
+        <v>1.013546958152687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055219010055314</v>
+        <v>1.041132340428781</v>
       </c>
       <c r="J19">
-        <v>1.036018375072143</v>
+        <v>1.012954064838868</v>
       </c>
       <c r="K19">
-        <v>1.045431676445571</v>
+        <v>1.024463905339955</v>
       </c>
       <c r="L19">
-        <v>1.036565341649357</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.048964232957505</v>
+        <v>1.0270725680661</v>
       </c>
       <c r="N19">
-        <v>1.037489639997714</v>
+        <v>1.008314334134834</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006820379644072</v>
+        <v>0.9840917271695555</v>
       </c>
       <c r="D20">
-        <v>1.030141232019306</v>
+        <v>1.009922690698829</v>
       </c>
       <c r="E20">
-        <v>1.021116046831312</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.033595253119978</v>
+        <v>1.012380608420666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054205516915203</v>
+        <v>1.04084687733708</v>
       </c>
       <c r="J20">
-        <v>1.034090895408054</v>
+        <v>1.012249965599392</v>
       </c>
       <c r="K20">
-        <v>1.043674010445762</v>
+        <v>1.023793277037466</v>
       </c>
       <c r="L20">
-        <v>1.034797487287612</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.047072018935537</v>
+        <v>1.026209197936103</v>
       </c>
       <c r="N20">
-        <v>1.035559423091417</v>
+        <v>1.00807869686636</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9980704914412066</v>
+        <v>0.9795435188337738</v>
       </c>
       <c r="D21">
-        <v>1.023245153290854</v>
+        <v>1.006719034862287</v>
       </c>
       <c r="E21">
-        <v>1.014184798260199</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.026256215410893</v>
+        <v>1.00853567687678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050804563357967</v>
+        <v>1.039891291560156</v>
       </c>
       <c r="J21">
-        <v>1.027649106714393</v>
+        <v>1.009922133770779</v>
       </c>
       <c r="K21">
-        <v>1.037799127293902</v>
+        <v>1.021574221445716</v>
       </c>
       <c r="L21">
-        <v>1.028902327948169</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.040756663695897</v>
+        <v>1.023357122798899</v>
       </c>
       <c r="N21">
-        <v>1.029108486318927</v>
+        <v>1.00729958201845</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923764058085445</v>
+        <v>0.9766263162017484</v>
       </c>
       <c r="D22">
-        <v>1.018765056550567</v>
+        <v>1.004668844776419</v>
       </c>
       <c r="E22">
-        <v>1.009692824843656</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.021494388193336</v>
+        <v>1.006076103760402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048579799369485</v>
+        <v>1.039268944290517</v>
       </c>
       <c r="J22">
-        <v>1.023454891564979</v>
+        <v>1.008427822752637</v>
       </c>
       <c r="K22">
-        <v>1.033973719824088</v>
+        <v>1.020148374886519</v>
       </c>
       <c r="L22">
-        <v>1.025074679822346</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.036651733585677</v>
+        <v>1.021528145247362</v>
       </c>
       <c r="N22">
-        <v>1.024908314902918</v>
+        <v>1.006799397300861</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9954141444453569</v>
+        <v>0.9781783886381357</v>
       </c>
       <c r="D23">
-        <v>1.02115437263522</v>
+        <v>1.005759172923912</v>
       </c>
       <c r="E23">
-        <v>1.012087420402886</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.024033381037125</v>
+        <v>1.007384059725586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049767739378007</v>
+        <v>1.039600932683336</v>
       </c>
       <c r="J23">
-        <v>1.025692630521696</v>
+        <v>1.009222964080481</v>
       </c>
       <c r="K23">
-        <v>1.036014704953519</v>
+        <v>1.020907208094796</v>
       </c>
       <c r="L23">
-        <v>1.027115810994583</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.038841160174113</v>
+        <v>1.022501186539395</v>
       </c>
       <c r="N23">
-        <v>1.027149231705627</v>
+        <v>1.00706555543988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006964004387102</v>
+        <v>0.9841670356955587</v>
       </c>
       <c r="D24">
-        <v>1.030254540287368</v>
+        <v>1.009975808506302</v>
       </c>
       <c r="E24">
-        <v>1.021230108512053</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.033715937395471</v>
+        <v>1.012444376688767</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054261144653714</v>
+        <v>1.040862539215511</v>
       </c>
       <c r="J24">
-        <v>1.03419659119155</v>
+        <v>1.012288486154838</v>
       </c>
       <c r="K24">
-        <v>1.043770397023846</v>
+        <v>1.023829973667522</v>
       </c>
       <c r="L24">
-        <v>1.034894382294681</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.0471757499361</v>
+        <v>1.026256423547058</v>
       </c>
       <c r="N24">
-        <v>1.035665268975049</v>
+        <v>1.008091588631862</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019613007906079</v>
+        <v>0.9908803984304768</v>
       </c>
       <c r="D25">
-        <v>1.040246850068975</v>
+        <v>1.014720077339612</v>
       </c>
       <c r="E25">
-        <v>1.031312201806432</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.044371952973473</v>
+        <v>1.018142634712698</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059131645256605</v>
+        <v>1.042235606520536</v>
       </c>
       <c r="J25">
-        <v>1.043497876103019</v>
+        <v>1.01571862012416</v>
       </c>
       <c r="K25">
-        <v>1.052250935656708</v>
+        <v>1.027094101201024</v>
       </c>
       <c r="L25">
-        <v>1.043443131845959</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.056318398905119</v>
+        <v>1.030465689815902</v>
       </c>
       <c r="N25">
-        <v>1.044979762777964</v>
+        <v>1.009239407407698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9960592396384201</v>
+        <v>1.022613565826668</v>
       </c>
       <c r="D2">
-        <v>1.018391669327988</v>
+        <v>1.032304562201916</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.022556844206151</v>
+        <v>1.041002484908686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043260243334305</v>
+        <v>1.032048314739603</v>
       </c>
       <c r="J2">
-        <v>1.018358460452326</v>
+        <v>1.027798416421324</v>
       </c>
       <c r="K2">
-        <v>1.029600589945829</v>
+        <v>1.03511017814932</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.033710622383146</v>
+        <v>1.043783233570425</v>
       </c>
       <c r="N2">
-        <v>1.010122508383361</v>
+        <v>1.013331343508064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9997243634749637</v>
+        <v>1.023396567042635</v>
       </c>
       <c r="D3">
-        <v>1.020995895407649</v>
+        <v>1.032882560340264</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.025690563618314</v>
+        <v>1.041717966528747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043964614666526</v>
+        <v>1.03214341065381</v>
       </c>
       <c r="J3">
-        <v>1.020222545441466</v>
+        <v>1.028220406776442</v>
       </c>
       <c r="K3">
-        <v>1.031366997148718</v>
+        <v>1.035497538398203</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.036004951609588</v>
+        <v>1.044309503773916</v>
       </c>
       <c r="N3">
-        <v>1.010745913858504</v>
+        <v>1.013471714926972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002053980006118</v>
+        <v>1.023903894802248</v>
       </c>
       <c r="D4">
-        <v>1.022653556186163</v>
+        <v>1.03325699817294</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.027686624013378</v>
+        <v>1.042181711634109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044402459534197</v>
+        <v>1.032203790458801</v>
       </c>
       <c r="J4">
-        <v>1.021405290299818</v>
+        <v>1.028493471037827</v>
       </c>
       <c r="K4">
-        <v>1.032486049676065</v>
+        <v>1.035747919490475</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.037461996093789</v>
+        <v>1.044650143282474</v>
       </c>
       <c r="N4">
-        <v>1.011141363763866</v>
+        <v>1.013562520721699</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003023596946983</v>
+        <v>1.024117334797243</v>
       </c>
       <c r="D5">
-        <v>1.02334401950832</v>
+        <v>1.033414513859839</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.02851837989822</v>
+        <v>1.042376854771378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044582292292983</v>
+        <v>1.032228897230713</v>
       </c>
       <c r="J5">
-        <v>1.021897034889361</v>
+        <v>1.028608267894394</v>
       </c>
       <c r="K5">
-        <v>1.032950887858238</v>
+        <v>1.035853114378514</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.038068091904423</v>
+        <v>1.044793372094303</v>
       </c>
       <c r="N5">
-        <v>1.011305753857831</v>
+        <v>1.013600689279714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003185836206093</v>
+        <v>1.024153181605111</v>
       </c>
       <c r="D6">
-        <v>1.023459579386906</v>
+        <v>1.033440967361991</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.02865760761379</v>
+        <v>1.042409630929501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044612240095271</v>
+        <v>1.032233096509786</v>
       </c>
       <c r="J6">
-        <v>1.021979283247679</v>
+        <v>1.028627542790286</v>
       </c>
       <c r="K6">
-        <v>1.033028610504714</v>
+        <v>1.035870773190927</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.038169484257963</v>
+        <v>1.044817422195631</v>
       </c>
       <c r="N6">
-        <v>1.011333247986927</v>
+        <v>1.013607097571227</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002066974021735</v>
+        <v>1.023906746173885</v>
       </c>
       <c r="D7">
-        <v>1.02266280720605</v>
+        <v>1.033259102506866</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.027697766754436</v>
+        <v>1.0421843184233</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044404879045549</v>
+        <v>1.032204127025637</v>
       </c>
       <c r="J7">
-        <v>1.021411882382866</v>
+        <v>1.028495004958211</v>
       </c>
       <c r="K7">
-        <v>1.032492282762851</v>
+        <v>1.03574932536819</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.037470119910899</v>
+        <v>1.044652057020943</v>
       </c>
       <c r="N7">
-        <v>1.011143567593831</v>
+        <v>1.013563030756792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973067541305144</v>
+        <v>1.022878044158395</v>
       </c>
       <c r="D8">
-        <v>1.019277557434316</v>
+        <v>1.032499808252087</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.023622574451532</v>
+        <v>1.041244122313313</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043502035694988</v>
+        <v>1.032080691277773</v>
       </c>
       <c r="J8">
-        <v>1.018993371226946</v>
+        <v>1.027941027515717</v>
       </c>
       <c r="K8">
-        <v>1.030202582998917</v>
+        <v>1.035241142761852</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.034491794668974</v>
+        <v>1.043961065726742</v>
       </c>
       <c r="N8">
-        <v>1.010334860444504</v>
+        <v>1.013378787348611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9885834997137307</v>
+        <v>1.021070581174474</v>
       </c>
       <c r="D9">
-        <v>1.013094889259873</v>
+        <v>1.03116524871004</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.016190005383249</v>
+        <v>1.039593452524476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041771167052965</v>
+        <v>1.031854378358587</v>
       </c>
       <c r="J9">
-        <v>1.0145459468274</v>
+        <v>1.026964971241679</v>
       </c>
       <c r="K9">
-        <v>1.025979024522383</v>
+        <v>1.034343679151538</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.029025760757938</v>
+        <v>1.042744352385792</v>
       </c>
       <c r="N9">
-        <v>1.008847035402318</v>
+        <v>1.013053964926507</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825224796544101</v>
+        <v>1.019869240967673</v>
       </c>
       <c r="D10">
-        <v>1.008816373879108</v>
+        <v>1.030277955418011</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.011052605831141</v>
+        <v>1.038497222254922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040519302238812</v>
+        <v>1.031697627330683</v>
       </c>
       <c r="J10">
-        <v>1.011447107381734</v>
+        <v>1.026314429718382</v>
       </c>
       <c r="K10">
-        <v>1.023028249843589</v>
+        <v>1.033744123536263</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.025225128952693</v>
+        <v>1.041933922211437</v>
       </c>
       <c r="N10">
-        <v>1.007809995298238</v>
+        <v>1.012837336154905</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798349585308885</v>
+        <v>1.019349933065729</v>
       </c>
       <c r="D11">
-        <v>1.006924057734339</v>
+        <v>1.029894344929067</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.008781679319906</v>
+        <v>1.038023570292174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039953075397727</v>
+        <v>1.031628367870288</v>
       </c>
       <c r="J11">
-        <v>1.010071372478332</v>
+        <v>1.026032793586741</v>
       </c>
       <c r="K11">
-        <v>1.021716567205528</v>
+        <v>1.033484231732386</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.023539864705345</v>
+        <v>1.041583188310763</v>
       </c>
       <c r="N11">
-        <v>1.007349534377023</v>
+        <v>1.01274352042715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9788267846166396</v>
+        <v>1.019157173146807</v>
       </c>
       <c r="D12">
-        <v>1.006214978859376</v>
+        <v>1.029751946090618</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.007930903443333</v>
+        <v>1.037847790820111</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039739039637504</v>
+        <v>1.031602434430107</v>
       </c>
       <c r="J12">
-        <v>1.009555073241658</v>
+        <v>1.025928190667124</v>
       </c>
       <c r="K12">
-        <v>1.021224070513766</v>
+        <v>1.033387655697548</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.022907721023242</v>
+        <v>1.041452940144107</v>
       </c>
       <c r="N12">
-        <v>1.007176720121799</v>
+        <v>1.012708671465653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9790434969994156</v>
+        <v>1.019198514702341</v>
       </c>
       <c r="D13">
-        <v>1.006367362472624</v>
+        <v>1.029782486966316</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.008113730642952</v>
+        <v>1.037885489019889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039785120497335</v>
+        <v>1.031608006614418</v>
       </c>
       <c r="J13">
-        <v>1.009666063806625</v>
+        <v>1.025950627906556</v>
       </c>
       <c r="K13">
-        <v>1.021329954537106</v>
+        <v>1.033408373400817</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.023043600426781</v>
+        <v>1.041480877430334</v>
       </c>
       <c r="N13">
-        <v>1.007213870908604</v>
+        <v>1.01271614675184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9797518273011767</v>
+        <v>1.019333996722937</v>
       </c>
       <c r="D14">
-        <v>1.00686557263931</v>
+        <v>1.029882572324939</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.008711503553664</v>
+        <v>1.038009037111634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039935459399663</v>
+        <v>1.031626228430603</v>
       </c>
       <c r="J14">
-        <v>1.010028804099479</v>
+        <v>1.026024146879554</v>
       </c>
       <c r="K14">
-        <v>1.021675966015688</v>
+        <v>1.033476249547978</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.023487738501081</v>
+        <v>1.041572421333761</v>
       </c>
       <c r="N14">
-        <v>1.007335286158522</v>
+        <v>1.012740639831422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9801869265266273</v>
+        <v>1.019417489501323</v>
       </c>
       <c r="D15">
-        <v>1.007171709404079</v>
+        <v>1.029944250360185</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.009078841449361</v>
+        <v>1.038085179901962</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040027593439969</v>
+        <v>1.031637428033007</v>
       </c>
       <c r="J15">
-        <v>1.010251593388625</v>
+        <v>1.026069445615852</v>
       </c>
       <c r="K15">
-        <v>1.021888450158841</v>
+        <v>1.033518064939908</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.023760563475208</v>
+        <v>1.041628828586344</v>
       </c>
       <c r="N15">
-        <v>1.007409856465452</v>
+        <v>1.012755730625585</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9826994764219675</v>
+        <v>1.019903724432428</v>
       </c>
       <c r="D16">
-        <v>1.008941105465902</v>
+        <v>1.030303427057747</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.011202318458837</v>
+        <v>1.038528678722194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040556364742822</v>
+        <v>1.031702194729407</v>
       </c>
       <c r="J16">
-        <v>1.011537679434588</v>
+        <v>1.026333122207026</v>
       </c>
       <c r="K16">
-        <v>1.023114571341815</v>
+        <v>1.033761365919115</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.025336122510073</v>
+        <v>1.041957203375523</v>
       </c>
       <c r="N16">
-        <v>1.007840308717997</v>
+        <v>1.012843562141503</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842583503642479</v>
+        <v>1.020208963788498</v>
       </c>
       <c r="D17">
-        <v>1.010040219126618</v>
+        <v>1.0305288894063</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.012521702883426</v>
+        <v>1.038807149295824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040881522590268</v>
+        <v>1.031742450811208</v>
       </c>
       <c r="J17">
-        <v>1.012335192789237</v>
+        <v>1.026498534628113</v>
       </c>
       <c r="K17">
-        <v>1.023874467663819</v>
+        <v>1.033913908191406</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.026313686481922</v>
+        <v>1.042163235746173</v>
       </c>
       <c r="N17">
-        <v>1.008107220008122</v>
+        <v>1.012898653115598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851615614788918</v>
+        <v>1.020387089552913</v>
       </c>
       <c r="D18">
-        <v>1.010677499772827</v>
+        <v>1.030660454894529</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.013286820489893</v>
+        <v>1.038969675020917</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041068856382461</v>
+        <v>1.031765797799479</v>
       </c>
       <c r="J18">
-        <v>1.01279711002269</v>
+        <v>1.026595021882016</v>
       </c>
       <c r="K18">
-        <v>1.02431443625665</v>
+        <v>1.034002856378659</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.026880080769761</v>
+        <v>1.042283428931943</v>
       </c>
       <c r="N18">
-        <v>1.008261807866721</v>
+        <v>1.012930785361489</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9854685191253192</v>
+        <v>1.020447840163313</v>
       </c>
       <c r="D19">
-        <v>1.010894155773999</v>
+        <v>1.030705324951847</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.013546958152687</v>
+        <v>1.039025108740085</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041132340428781</v>
+        <v>1.031773735818787</v>
       </c>
       <c r="J19">
-        <v>1.012954064838868</v>
+        <v>1.026627922346335</v>
       </c>
       <c r="K19">
-        <v>1.024463905339955</v>
+        <v>1.034033180764138</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.0270725680661</v>
+        <v>1.042324414698219</v>
       </c>
       <c r="N19">
-        <v>1.008314334134834</v>
+        <v>1.012941741376859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9840917271695555</v>
+        <v>1.020176205708132</v>
       </c>
       <c r="D20">
-        <v>1.009922690698829</v>
+        <v>1.030504693507743</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.012380608420666</v>
+        <v>1.038777261828776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04084687733708</v>
+        <v>1.031738145538948</v>
       </c>
       <c r="J20">
-        <v>1.012249965599392</v>
+        <v>1.026480786915036</v>
       </c>
       <c r="K20">
-        <v>1.023793277037466</v>
+        <v>1.033897544645857</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.026209197936103</v>
+        <v>1.042141128548788</v>
       </c>
       <c r="N20">
-        <v>1.00807869686636</v>
+        <v>1.012892742515433</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795435188337738</v>
+        <v>1.019294096926008</v>
       </c>
       <c r="D21">
-        <v>1.006719034862287</v>
+        <v>1.029853097148155</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.00853567687678</v>
+        <v>1.037972650954643</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039891291560156</v>
+        <v>1.031620868279157</v>
       </c>
       <c r="J21">
-        <v>1.009922133770779</v>
+        <v>1.026002497107258</v>
       </c>
       <c r="K21">
-        <v>1.021574221445716</v>
+        <v>1.03345626282476</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.023357122798899</v>
+        <v>1.041545463092571</v>
       </c>
       <c r="N21">
-        <v>1.00729958201845</v>
+        <v>1.012733427270863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9766263162017484</v>
+        <v>1.018740257261202</v>
       </c>
       <c r="D22">
-        <v>1.004668844776419</v>
+        <v>1.029443941181273</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.006076103760402</v>
+        <v>1.037467663596203</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039268944290517</v>
+        <v>1.031545931858191</v>
       </c>
       <c r="J22">
-        <v>1.008427822752637</v>
+        <v>1.025701831687648</v>
       </c>
       <c r="K22">
-        <v>1.020148374886519</v>
+        <v>1.033178576978026</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.021528145247362</v>
+        <v>1.041171119165601</v>
       </c>
       <c r="N22">
-        <v>1.006799397300861</v>
+        <v>1.012633250302939</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9781783886381357</v>
+        <v>1.019033783848894</v>
       </c>
       <c r="D23">
-        <v>1.005759172923912</v>
+        <v>1.029660791725634</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.007384059725586</v>
+        <v>1.037735280559257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039600932683336</v>
+        <v>1.03158577053523</v>
       </c>
       <c r="J23">
-        <v>1.009222964080481</v>
+        <v>1.02586121450481</v>
       </c>
       <c r="K23">
-        <v>1.020907208094796</v>
+        <v>1.033325805235903</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.022501186539395</v>
+        <v>1.041369548808774</v>
       </c>
       <c r="N23">
-        <v>1.00706555543988</v>
+        <v>1.012686356714251</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9841670356955587</v>
+        <v>1.020191007412783</v>
       </c>
       <c r="D24">
-        <v>1.009975808506302</v>
+        <v>1.030515626416597</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.012444376688767</v>
+        <v>1.03879076638444</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040862539215511</v>
+        <v>1.031740091319377</v>
       </c>
       <c r="J24">
-        <v>1.012288486154838</v>
+        <v>1.026488806327404</v>
       </c>
       <c r="K24">
-        <v>1.023829973667522</v>
+        <v>1.033904938711777</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.026256423547058</v>
+        <v>1.042151117784347</v>
       </c>
       <c r="N24">
-        <v>1.008091588631862</v>
+        <v>1.012895413265579</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9908803984304768</v>
+        <v>1.021537221105039</v>
       </c>
       <c r="D25">
-        <v>1.014720077339612</v>
+        <v>1.031509847622851</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.018142634712698</v>
+        <v>1.040019456677264</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042235606520536</v>
+        <v>1.031913924473337</v>
       </c>
       <c r="J25">
-        <v>1.01571862012416</v>
+        <v>1.027217282375347</v>
       </c>
       <c r="K25">
-        <v>1.027094101201024</v>
+        <v>1.034575920957438</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.030465689815902</v>
+        <v>1.043058784185277</v>
       </c>
       <c r="N25">
-        <v>1.009239407407698</v>
+        <v>1.013137955573838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022613565826668</v>
+        <v>0.98201872958856</v>
       </c>
       <c r="D2">
-        <v>1.032304562201916</v>
+        <v>1.004091984913844</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.041002484908686</v>
+        <v>0.957893120045358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032048314739603</v>
+        <v>1.038593396697998</v>
       </c>
       <c r="J2">
-        <v>1.027798416421324</v>
+        <v>1.004750888813963</v>
       </c>
       <c r="K2">
-        <v>1.03511017814932</v>
+        <v>1.015494604746086</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.043783233570425</v>
+        <v>0.9699720027490479</v>
       </c>
       <c r="N2">
-        <v>1.013331343508064</v>
+        <v>1.006177750322617</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023396567042635</v>
+        <v>0.9874452994933516</v>
       </c>
       <c r="D3">
-        <v>1.032882560340264</v>
+        <v>1.008160366453541</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.041717966528747</v>
+        <v>0.9661426075098809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03214341065381</v>
+        <v>1.04015447216692</v>
       </c>
       <c r="J3">
-        <v>1.028220406776442</v>
+        <v>1.008284169601909</v>
       </c>
       <c r="K3">
-        <v>1.035497538398203</v>
+        <v>1.018689887874042</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.044309503773916</v>
+        <v>0.977227848059495</v>
       </c>
       <c r="N3">
-        <v>1.013471714926972</v>
+        <v>1.009716048774555</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023903894802248</v>
+        <v>0.9908585411491647</v>
       </c>
       <c r="D4">
-        <v>1.03325699817294</v>
+        <v>1.010717920118532</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.042181711634109</v>
+        <v>0.9713197818805698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032203790458801</v>
+        <v>1.041118266730506</v>
       </c>
       <c r="J4">
-        <v>1.028493471037827</v>
+        <v>1.01049901268797</v>
       </c>
       <c r="K4">
-        <v>1.035747919490475</v>
+        <v>1.020688687700337</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.044650143282474</v>
+        <v>0.9817771368073585</v>
       </c>
       <c r="N4">
-        <v>1.013562520721699</v>
+        <v>1.011934037191843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024117334797243</v>
+        <v>0.992271090908919</v>
       </c>
       <c r="D5">
-        <v>1.033414513859839</v>
+        <v>1.011775926201244</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.042376854771378</v>
+        <v>0.9734600239085733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032228897230713</v>
+        <v>1.04151271431854</v>
       </c>
       <c r="J5">
-        <v>1.028608267894394</v>
+        <v>1.011413786263256</v>
       </c>
       <c r="K5">
-        <v>1.035853114378514</v>
+        <v>1.021513184544368</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.044793372094303</v>
+        <v>0.9836567335658714</v>
       </c>
       <c r="N5">
-        <v>1.013600689279714</v>
+        <v>1.012850109850532</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024153181605111</v>
+        <v>0.9925069827600322</v>
       </c>
       <c r="D6">
-        <v>1.033440967361991</v>
+        <v>1.011952583000618</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042409630929501</v>
+        <v>0.9738173165774895</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032233096509786</v>
+        <v>1.041578324399843</v>
       </c>
       <c r="J6">
-        <v>1.028627542790286</v>
+        <v>1.011566443004045</v>
       </c>
       <c r="K6">
-        <v>1.035870773190927</v>
+        <v>1.021650713074851</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.044817422195631</v>
+        <v>0.9839704493907817</v>
       </c>
       <c r="N6">
-        <v>1.013607097571227</v>
+        <v>1.013002983381404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023906746173885</v>
+        <v>0.9908775022274698</v>
       </c>
       <c r="D7">
-        <v>1.033259102506866</v>
+        <v>1.010732123831952</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.0421843184233</v>
+        <v>0.9713485194728571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032204127025637</v>
+        <v>1.041123579072227</v>
       </c>
       <c r="J7">
-        <v>1.028495004958211</v>
+        <v>1.010511299215003</v>
       </c>
       <c r="K7">
-        <v>1.03574932536819</v>
+        <v>1.020699765905733</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.044652057020943</v>
+        <v>0.9818023789703435</v>
       </c>
       <c r="N7">
-        <v>1.013563030756792</v>
+        <v>1.011946341167154</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022878044158395</v>
+        <v>0.9838736758240331</v>
       </c>
       <c r="D8">
-        <v>1.032499808252087</v>
+        <v>1.005482908996453</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.041244122313313</v>
+        <v>0.9607157873936483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032080691277773</v>
+        <v>1.039130786816416</v>
       </c>
       <c r="J8">
-        <v>1.027941027515717</v>
+        <v>1.005960239549016</v>
       </c>
       <c r="K8">
-        <v>1.035241142761852</v>
+        <v>1.016589119494196</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.043961065726742</v>
+        <v>0.972455561326182</v>
       </c>
       <c r="N8">
-        <v>1.013378787348611</v>
+        <v>1.007388818474428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021070581174474</v>
+        <v>0.9707257470850588</v>
       </c>
       <c r="D9">
-        <v>1.03116524871004</v>
+        <v>0.995621670164834</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.039593452524476</v>
+        <v>0.9406351520742361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031854378358587</v>
+        <v>1.03524665811324</v>
       </c>
       <c r="J9">
-        <v>1.026964971241679</v>
+        <v>0.9973563613442525</v>
       </c>
       <c r="K9">
-        <v>1.034343679151538</v>
+        <v>1.008786184390043</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.042744352385792</v>
+        <v>0.9547708812545371</v>
       </c>
       <c r="N9">
-        <v>1.013053964926507</v>
+        <v>0.9987727217757348</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019869240967673</v>
+        <v>0.9613327731011586</v>
       </c>
       <c r="D10">
-        <v>1.030277955418011</v>
+        <v>0.9885782043300634</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.038497222254922</v>
+        <v>0.9261647804419175</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031697627330683</v>
+        <v>1.032378940030092</v>
       </c>
       <c r="J10">
-        <v>1.026314429718382</v>
+        <v>0.9911692098661781</v>
       </c>
       <c r="K10">
-        <v>1.033744123536263</v>
+        <v>1.003156791208891</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.041933922211437</v>
+        <v>0.9420086740546685</v>
       </c>
       <c r="N10">
-        <v>1.012837336154905</v>
+        <v>0.9925767838328855</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019349933065729</v>
+        <v>0.9570944638891962</v>
       </c>
       <c r="D11">
-        <v>1.029894344929067</v>
+        <v>0.985401931248998</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.038023570292174</v>
+        <v>0.9195943223733338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031628367870288</v>
+        <v>1.031063956854479</v>
       </c>
       <c r="J11">
-        <v>1.026032793586741</v>
+        <v>0.9883678918288046</v>
       </c>
       <c r="K11">
-        <v>1.033484231732386</v>
+        <v>1.000604498512978</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.041583188310763</v>
+        <v>0.9362104868093545</v>
       </c>
       <c r="N11">
-        <v>1.01274352042715</v>
+        <v>0.9897714876025834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019157173146807</v>
+        <v>0.9554922962694674</v>
       </c>
       <c r="D12">
-        <v>1.029751946090618</v>
+        <v>0.984201660059835</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.037847790820111</v>
+        <v>0.9171032181072337</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031602434430107</v>
+        <v>1.030563802739983</v>
       </c>
       <c r="J12">
-        <v>1.025928190667124</v>
+        <v>0.9873075021685277</v>
       </c>
       <c r="K12">
-        <v>1.033387655697548</v>
+        <v>0.9996379220346446</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.041452940144107</v>
+        <v>0.9340117794066581</v>
       </c>
       <c r="N12">
-        <v>1.012708671465653</v>
+        <v>0.9887095920673605</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019198514702341</v>
+        <v>0.9558372656155186</v>
       </c>
       <c r="D13">
-        <v>1.029782486966316</v>
+        <v>0.9844600738574413</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.037885489019889</v>
+        <v>0.9176399397228162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031608006614418</v>
+        <v>1.030671629753954</v>
       </c>
       <c r="J13">
-        <v>1.025950627906556</v>
+        <v>0.9875358838600492</v>
       </c>
       <c r="K13">
-        <v>1.033408373400817</v>
+        <v>0.9998461177526</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.041480877430334</v>
+        <v>0.9344855187965462</v>
       </c>
       <c r="N13">
-        <v>1.01271614675184</v>
+        <v>0.9889382980870794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019333996722937</v>
+        <v>0.9569626102574362</v>
       </c>
       <c r="D14">
-        <v>1.029882572324939</v>
+        <v>0.9853031430269628</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.038009037111634</v>
+        <v>0.9193894680133822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031626228430603</v>
+        <v>1.031022857258836</v>
       </c>
       <c r="J14">
-        <v>1.026024146879554</v>
+        <v>0.988280654026894</v>
       </c>
       <c r="K14">
-        <v>1.033476249547978</v>
+        <v>1.000524987366003</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.041572421333761</v>
+        <v>0.9360296849751641</v>
       </c>
       <c r="N14">
-        <v>1.012740639831422</v>
+        <v>0.9896841259129876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019417489501323</v>
+        <v>0.9576522097072149</v>
       </c>
       <c r="D15">
-        <v>1.029944250360185</v>
+        <v>0.9858198272899912</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.038085179901962</v>
+        <v>0.9204605583540325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031637428033007</v>
+        <v>1.03123768567729</v>
       </c>
       <c r="J15">
-        <v>1.026069445615852</v>
+        <v>0.988736852678626</v>
       </c>
       <c r="K15">
-        <v>1.033518064939908</v>
+        <v>1.000940762628157</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.041628828586344</v>
+        <v>0.9369750000076266</v>
       </c>
       <c r="N15">
-        <v>1.012755730625585</v>
+        <v>0.9901409724191316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019903724432428</v>
+        <v>0.9616102721034337</v>
       </c>
       <c r="D16">
-        <v>1.030303427057747</v>
+        <v>0.988786218365032</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.038528678722194</v>
+        <v>0.926594028933432</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031702194729407</v>
+        <v>1.032464609615582</v>
       </c>
       <c r="J16">
-        <v>1.026333122207026</v>
+        <v>0.9913524256729568</v>
       </c>
       <c r="K16">
-        <v>1.033761365919115</v>
+        <v>1.003323653552713</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.041957203375523</v>
+        <v>0.9423874092358112</v>
       </c>
       <c r="N16">
-        <v>1.012843562141503</v>
+        <v>0.992760259827125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020208963788498</v>
+        <v>0.964045805971287</v>
       </c>
       <c r="D17">
-        <v>1.0305288894063</v>
+        <v>0.9906121308877095</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.038807149295824</v>
+        <v>0.9303566590515098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031742450811208</v>
+        <v>1.033214145010374</v>
       </c>
       <c r="J17">
-        <v>1.026498534628113</v>
+        <v>0.9929593833907228</v>
       </c>
       <c r="K17">
-        <v>1.033913908191406</v>
+        <v>1.004786790341225</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.042163235746173</v>
+        <v>0.9457068929930157</v>
       </c>
       <c r="N17">
-        <v>1.012898653115598</v>
+        <v>0.9943694996091705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020387089552913</v>
+        <v>0.9654500636174234</v>
       </c>
       <c r="D18">
-        <v>1.030660454894529</v>
+        <v>0.9916650667299746</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.038969675020917</v>
+        <v>0.9325222947465833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031765797799479</v>
+        <v>1.033644321615193</v>
       </c>
       <c r="J18">
-        <v>1.026595021882016</v>
+        <v>0.9938850101955183</v>
       </c>
       <c r="K18">
-        <v>1.034002856378659</v>
+        <v>1.005629239867751</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.042283428931943</v>
+        <v>0.9476171486736893</v>
       </c>
       <c r="N18">
-        <v>1.012930785361489</v>
+        <v>0.9952964409102</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020447840163313</v>
+        <v>0.965926167833442</v>
       </c>
       <c r="D19">
-        <v>1.030705324951847</v>
+        <v>0.9920220821116459</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.039025108740085</v>
+        <v>0.933255928384068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031773735818787</v>
+        <v>1.033789830983447</v>
       </c>
       <c r="J19">
-        <v>1.026627922346335</v>
+        <v>0.9941986853946104</v>
       </c>
       <c r="K19">
-        <v>1.034033180764138</v>
+        <v>1.005914669144262</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.042324414698219</v>
+        <v>0.9482642122248295</v>
       </c>
       <c r="N19">
-        <v>1.012941741376859</v>
+        <v>0.9956105615640539</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020176205708132</v>
+        <v>0.9637862020087816</v>
       </c>
       <c r="D20">
-        <v>1.030504693507743</v>
+        <v>0.9904174881393789</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.038777261828776</v>
+        <v>0.9299560007839397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031738145538948</v>
+        <v>1.033134457353682</v>
       </c>
       <c r="J20">
-        <v>1.026480786915036</v>
+        <v>0.9927881907873025</v>
       </c>
       <c r="K20">
-        <v>1.033897544645857</v>
+        <v>1.004630953557699</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.042141128548788</v>
+        <v>0.9453534552003473</v>
       </c>
       <c r="N20">
-        <v>1.012892742515433</v>
+        <v>0.9941980638926176</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019294096926008</v>
+        <v>0.9566320124316228</v>
       </c>
       <c r="D21">
-        <v>1.029853097148155</v>
+        <v>0.9850554577429218</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.037972650954643</v>
+        <v>0.9188757125289093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031620868279157</v>
+        <v>1.030919758909492</v>
       </c>
       <c r="J21">
-        <v>1.026002497107258</v>
+        <v>0.9880618988037989</v>
       </c>
       <c r="K21">
-        <v>1.03345626282476</v>
+        <v>1.000325600318448</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.041545463092571</v>
+        <v>0.9355762449169871</v>
       </c>
       <c r="N21">
-        <v>1.012733427270863</v>
+        <v>0.9894650600323844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018740257261202</v>
+        <v>0.9519713581712476</v>
       </c>
       <c r="D22">
-        <v>1.029443941181273</v>
+        <v>0.9815648824650969</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.037467663596203</v>
+        <v>0.9116137735985397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031545931858191</v>
+        <v>1.029459117200099</v>
       </c>
       <c r="J22">
-        <v>1.025701831687648</v>
+        <v>0.9849745303435686</v>
       </c>
       <c r="K22">
-        <v>1.033178576978026</v>
+        <v>0.997510607518081</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.041171119165601</v>
+        <v>0.9291660556380289</v>
       </c>
       <c r="N22">
-        <v>1.012633250302939</v>
+        <v>0.9863733071548142</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019033783848894</v>
+        <v>0.954458261755137</v>
       </c>
       <c r="D23">
-        <v>1.029660791725634</v>
+        <v>0.9834271467686114</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.037735280559257</v>
+        <v>0.9154932376449262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03158577053523</v>
+        <v>1.030240153041742</v>
       </c>
       <c r="J23">
-        <v>1.02586121450481</v>
+        <v>0.9866227248277264</v>
       </c>
       <c r="K23">
-        <v>1.033325805235903</v>
+        <v>0.9990136102272829</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.041369548808774</v>
+        <v>0.9325906741514254</v>
       </c>
       <c r="N23">
-        <v>1.012686356714251</v>
+        <v>0.98802384226419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020191007412783</v>
+        <v>0.9639035562251465</v>
       </c>
       <c r="D24">
-        <v>1.030515626416597</v>
+        <v>0.9905054760662099</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.03879076638444</v>
+        <v>0.9301371304074506</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031740091319377</v>
+        <v>1.033170486400832</v>
       </c>
       <c r="J24">
-        <v>1.026488806327404</v>
+        <v>0.992865581354182</v>
       </c>
       <c r="K24">
-        <v>1.033904938711777</v>
+        <v>1.004701403306958</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.042151117784347</v>
+        <v>0.9455132383918463</v>
       </c>
       <c r="N24">
-        <v>1.012895413265579</v>
+        <v>0.9942755643629788</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021537221105039</v>
+        <v>0.9742286087477349</v>
       </c>
       <c r="D25">
-        <v>1.031509847622851</v>
+        <v>0.9982491145191484</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.040019456677264</v>
+        <v>0.946002928131416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031913924473337</v>
+        <v>1.036297629579426</v>
       </c>
       <c r="J25">
-        <v>1.027217282375347</v>
+        <v>0.9996555370413683</v>
       </c>
       <c r="K25">
-        <v>1.034575920957438</v>
+        <v>1.010874671671885</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.043058784185277</v>
+        <v>0.9595016114710397</v>
       </c>
       <c r="N25">
-        <v>1.013137955573838</v>
+        <v>1.00107516256606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.98201872958856</v>
+        <v>0.998066047801166</v>
       </c>
       <c r="D2">
-        <v>1.004091984913844</v>
+        <v>1.020250880674049</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.957893120045358</v>
+        <v>1.015784478753596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038593396697998</v>
+        <v>1.046793905595747</v>
       </c>
       <c r="J2">
-        <v>1.004750888813963</v>
+        <v>1.020304757315331</v>
       </c>
       <c r="K2">
-        <v>1.015494604746086</v>
+        <v>1.031435117529824</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9699720027490479</v>
+        <v>1.027028204846154</v>
       </c>
       <c r="N2">
-        <v>1.006177750322617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.02175370710131</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029963323258293</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033297550508786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874452994933516</v>
+        <v>1.002143768736723</v>
       </c>
       <c r="D3">
-        <v>1.008160366453541</v>
+        <v>1.023048798078571</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9661426075098809</v>
+        <v>1.018957653933396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04015447216692</v>
+        <v>1.047718620853559</v>
       </c>
       <c r="J3">
-        <v>1.008284169601909</v>
+        <v>1.022576162569756</v>
       </c>
       <c r="K3">
-        <v>1.018689887874042</v>
+        <v>1.033395020292111</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.977227848059495</v>
+        <v>1.029353580802733</v>
       </c>
       <c r="N3">
-        <v>1.009716048774555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.02402833801173</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031803727407867</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03468070995584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9908585411491647</v>
+        <v>1.004725979596557</v>
       </c>
       <c r="D4">
-        <v>1.010717920118532</v>
+        <v>1.024820538723998</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9713197818805698</v>
+        <v>1.020976690919724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041118266730506</v>
+        <v>1.048288373639914</v>
       </c>
       <c r="J4">
-        <v>1.01049901268797</v>
+        <v>1.024009562074528</v>
       </c>
       <c r="K4">
-        <v>1.020688687700337</v>
+        <v>1.034628353837475</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9817771368073585</v>
+        <v>1.030828369891858</v>
       </c>
       <c r="N4">
-        <v>1.011934037191843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.025463773108213</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032970937424307</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03555369629254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.992271090908919</v>
+        <v>1.005801693478522</v>
       </c>
       <c r="D5">
-        <v>1.011775926201244</v>
+        <v>1.025560373640427</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9734600239085733</v>
+        <v>1.021818942106153</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04151271431854</v>
+        <v>1.048523203886439</v>
       </c>
       <c r="J5">
-        <v>1.011413786263256</v>
+        <v>1.024606823234566</v>
       </c>
       <c r="K5">
-        <v>1.021513184544368</v>
+        <v>1.035142673183881</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9836567335658714</v>
+        <v>1.031442792464812</v>
       </c>
       <c r="N5">
-        <v>1.012850109850532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.026061882447604</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.03345721667637</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035924578265798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9925069827600322</v>
+        <v>1.005985458755791</v>
       </c>
       <c r="D6">
-        <v>1.011952583000618</v>
+        <v>1.025688957459091</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9738173165774895</v>
+        <v>1.021961587093931</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041578324399843</v>
+        <v>1.048564725792621</v>
       </c>
       <c r="J6">
-        <v>1.011566443004045</v>
+        <v>1.024710422864085</v>
       </c>
       <c r="K6">
-        <v>1.021650713074851</v>
+        <v>1.03523338846979</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9839704493907817</v>
+        <v>1.0315472219746</v>
       </c>
       <c r="N6">
-        <v>1.013002983381404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02616562920048</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033539866444743</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035997514472119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9908775022274698</v>
+        <v>1.00475082332833</v>
       </c>
       <c r="D7">
-        <v>1.010732123831952</v>
+        <v>1.02484346940792</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9713485194728571</v>
+        <v>1.020992479641885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041123579072227</v>
+        <v>1.048298153649422</v>
       </c>
       <c r="J7">
-        <v>1.010511299215003</v>
+        <v>1.024027731863062</v>
       </c>
       <c r="K7">
-        <v>1.020699765905733</v>
+        <v>1.034648120055831</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9818023789703435</v>
+        <v>1.030841058917193</v>
       </c>
       <c r="N7">
-        <v>1.011946341167154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.02548196869993</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03298098004337</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03558789844446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9838736758240331</v>
+        <v>0.9994687319064541</v>
       </c>
       <c r="D8">
-        <v>1.005482908996453</v>
+        <v>1.021220291765731</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9607157873936483</v>
+        <v>1.016869593654607</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039130786816416</v>
+        <v>1.047120369168924</v>
       </c>
       <c r="J8">
-        <v>1.005960239549016</v>
+        <v>1.021092356353249</v>
       </c>
       <c r="K8">
-        <v>1.016589119494196</v>
+        <v>1.032120292377549</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.972455561326182</v>
+        <v>1.027825803060227</v>
       </c>
       <c r="N8">
-        <v>1.007388818474428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.022542424620201</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030594577888139</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033805094830587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9707257470850588</v>
+        <v>0.9896929403625331</v>
       </c>
       <c r="D9">
-        <v>0.995621670164834</v>
+        <v>1.01450814797166</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9406351520742361</v>
+        <v>1.009323576022487</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03524665811324</v>
+        <v>1.044810669474094</v>
       </c>
       <c r="J9">
-        <v>0.9973563613442525</v>
+        <v>1.015614992254918</v>
       </c>
       <c r="K9">
-        <v>1.008786184390043</v>
+        <v>1.027370145697755</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9547708812545371</v>
+        <v>1.022267174415699</v>
       </c>
       <c r="N9">
-        <v>0.9987727217757348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017057282036588</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02619522044764</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030443169794889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9613327731011586</v>
+        <v>0.9829735962892899</v>
       </c>
       <c r="D10">
-        <v>0.9885782043300634</v>
+        <v>1.009905869176688</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9261647804419175</v>
+        <v>1.004430442761453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032378940030092</v>
+        <v>1.043161099761487</v>
       </c>
       <c r="J10">
-        <v>0.9911692098661781</v>
+        <v>1.011879419384404</v>
       </c>
       <c r="K10">
-        <v>1.003156791208891</v>
+        <v>1.024098544161467</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9420086740546685</v>
+        <v>1.018720162310936</v>
       </c>
       <c r="N10">
-        <v>0.9925767838328855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013316404224122</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.023440329659125</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028146862800434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9570944638891962</v>
+        <v>0.9810009449557624</v>
       </c>
       <c r="D11">
-        <v>0.985401931248998</v>
+        <v>1.008594808342975</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9195943223733338</v>
+        <v>1.004908109196262</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031063956854479</v>
+        <v>1.042780795689954</v>
       </c>
       <c r="J11">
-        <v>0.9883678918288046</v>
+        <v>1.011186037532322</v>
       </c>
       <c r="K11">
-        <v>1.000604498512978</v>
+        <v>1.023356439170913</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9362104868093545</v>
+        <v>1.019738055560353</v>
       </c>
       <c r="N11">
-        <v>0.9897714876025834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012622037690277</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024689155196124</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027655321646742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554922962694674</v>
+        <v>0.9805802290249604</v>
       </c>
       <c r="D12">
-        <v>0.984201660059835</v>
+        <v>1.008328549208095</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9171032181072337</v>
+        <v>1.005955808376842</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030563802739983</v>
+        <v>1.042749370459759</v>
       </c>
       <c r="J12">
-        <v>0.9873075021685277</v>
+        <v>1.011229830709826</v>
       </c>
       <c r="K12">
-        <v>0.9996379220346446</v>
+        <v>1.023297908112221</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9340117794066581</v>
+        <v>1.020969787160841</v>
       </c>
       <c r="N12">
-        <v>0.9887095920673605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012665893059117</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025994218376926</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027613937525594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9558372656155186</v>
+        <v>0.9813369705803403</v>
       </c>
       <c r="D13">
-        <v>0.9844600738574413</v>
+        <v>1.008862591309248</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9176399397228162</v>
+        <v>1.007538333263421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030671629753954</v>
+        <v>1.042997222944813</v>
       </c>
       <c r="J13">
-        <v>0.9875358838600492</v>
+        <v>1.011857140523096</v>
       </c>
       <c r="K13">
-        <v>0.9998461177526</v>
+        <v>1.023778474730554</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9344855187965462</v>
+        <v>1.022478968100969</v>
       </c>
       <c r="N13">
-        <v>0.9889382980870794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013294093724275</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02746722419032</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027951203314181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9569626102574362</v>
+        <v>0.9823848852015532</v>
       </c>
       <c r="D14">
-        <v>0.9853031430269628</v>
+        <v>1.009589355693804</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9193894680133822</v>
+        <v>1.008858839928957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031022857258836</v>
+        <v>1.043292069677775</v>
       </c>
       <c r="J14">
-        <v>0.988280654026894</v>
+        <v>1.01254601995117</v>
       </c>
       <c r="K14">
-        <v>1.000524987366003</v>
+        <v>1.024349403342962</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9360296849751641</v>
+        <v>1.023632355479165</v>
       </c>
       <c r="N14">
-        <v>0.9896841259129876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013983951440153</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.02855382845269</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028356314043632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9576522097072149</v>
+        <v>0.9829133103855834</v>
       </c>
       <c r="D15">
-        <v>0.9858198272899912</v>
+        <v>1.009954492687012</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9204605583540325</v>
+        <v>1.00934823556255</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03123768567729</v>
+        <v>1.043431761561924</v>
       </c>
       <c r="J15">
-        <v>0.988736852678626</v>
+        <v>1.012859097018648</v>
       </c>
       <c r="K15">
-        <v>1.000940762628157</v>
+        <v>1.024620193695025</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.9369750000076266</v>
+        <v>1.024025024867258</v>
       </c>
       <c r="N15">
-        <v>0.9901409724191316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014297473112977</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028902023816902</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028553700260575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9616102721034337</v>
+        <v>0.9856030528294767</v>
       </c>
       <c r="D16">
-        <v>0.988786218365032</v>
+        <v>1.011796735786376</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.926594028933432</v>
+        <v>1.011155792578798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032464609615582</v>
+        <v>1.044098542113108</v>
       </c>
       <c r="J16">
-        <v>0.9913524256729568</v>
+        <v>1.014321098792565</v>
       </c>
       <c r="K16">
-        <v>1.003323653552713</v>
+        <v>1.025920151828468</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9423874092358112</v>
+        <v>1.025290410381729</v>
       </c>
       <c r="N16">
-        <v>0.992760259827125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015761551097107</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029863149514486</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029476024704347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.964045805971287</v>
+        <v>0.9871278944825438</v>
       </c>
       <c r="D17">
-        <v>0.9906121308877095</v>
+        <v>1.012836949392086</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9303566590515098</v>
+        <v>1.011857388945968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033214145010374</v>
+        <v>1.044455562081521</v>
       </c>
       <c r="J17">
-        <v>0.9929593833907228</v>
+        <v>1.015089876561874</v>
       </c>
       <c r="K17">
-        <v>1.004786790341225</v>
+        <v>1.026623582810913</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9457068929930157</v>
+        <v>1.025660660985229</v>
       </c>
       <c r="N17">
-        <v>0.9943694996091705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016531420619028</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.030025672004921</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029975992729989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9654500636174234</v>
+        <v>0.9877379717175954</v>
       </c>
       <c r="D18">
-        <v>0.9916650667299746</v>
+        <v>1.013239977823685</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9325222947465833</v>
+        <v>1.011496364397451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033644321615193</v>
+        <v>1.044559647208963</v>
       </c>
       <c r="J18">
-        <v>0.9938850101955183</v>
+        <v>1.015272363790338</v>
       </c>
       <c r="K18">
-        <v>1.005629239867751</v>
+        <v>1.026834019626408</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9476171486736893</v>
+        <v>1.025119563013885</v>
       </c>
       <c r="N18">
-        <v>0.9952964409102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016714167000288</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029357849792654</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030113046079568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.965926167833442</v>
+        <v>0.9874710525556701</v>
       </c>
       <c r="D19">
-        <v>0.9920220821116459</v>
+        <v>1.013038788940522</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684961</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.933255928384068</v>
+        <v>1.010056560056024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033789830983447</v>
+        <v>1.044423546910997</v>
       </c>
       <c r="J19">
-        <v>0.9941986853946104</v>
+        <v>1.014878439826846</v>
       </c>
       <c r="K19">
-        <v>1.005914669144262</v>
+        <v>1.02657283117001</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816586</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9482642122248295</v>
+        <v>1.023640308339971</v>
       </c>
       <c r="N19">
-        <v>0.9956105615640539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016319683619585</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027858670219532</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029934824462005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9637862020087816</v>
+        <v>0.9847468449948034</v>
       </c>
       <c r="D20">
-        <v>0.9904174881393789</v>
+        <v>1.011132802096534</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9299560007839397</v>
+        <v>1.005721512107139</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033134457353682</v>
+        <v>1.043611527409322</v>
       </c>
       <c r="J20">
-        <v>0.9927881907873025</v>
+        <v>1.01287868216714</v>
       </c>
       <c r="K20">
-        <v>1.004630953557699</v>
+        <v>1.024982679094193</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9453534552003473</v>
+        <v>1.019664496206164</v>
       </c>
       <c r="N20">
-        <v>0.9941980638926176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014317086074626</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.024176940842813</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028814471336714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9566320124316228</v>
+        <v>0.9794785273878277</v>
       </c>
       <c r="D21">
-        <v>0.9850554577429218</v>
+        <v>1.007517174759197</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9188757125289093</v>
+        <v>1.001531700785206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030919758909492</v>
+        <v>1.04226611279188</v>
       </c>
       <c r="J21">
-        <v>0.9880618988037989</v>
+        <v>1.009860024981217</v>
       </c>
       <c r="K21">
-        <v>1.000325600318448</v>
+        <v>1.022357517869773</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9355762449169871</v>
+        <v>1.016484112615143</v>
       </c>
       <c r="N21">
-        <v>0.9894650600323844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011294142049254</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021618206114862</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026961619988408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9519713581712476</v>
+        <v>0.9761402792511235</v>
       </c>
       <c r="D22">
-        <v>0.9815648824650969</v>
+        <v>1.005226006058519</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9116137735985397</v>
+        <v>0.9990121670670595</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029459117200099</v>
+        <v>1.04140208748282</v>
       </c>
       <c r="J22">
-        <v>0.9849745303435686</v>
+        <v>1.007964632228867</v>
       </c>
       <c r="K22">
-        <v>0.997510607518081</v>
+        <v>1.020694640812163</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9291660556380289</v>
+        <v>1.014603218553456</v>
       </c>
       <c r="N22">
-        <v>0.9863733071548142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009396057621792</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.020129562544711</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02577222306403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.954458261755137</v>
+        <v>0.9779092238543927</v>
       </c>
       <c r="D23">
-        <v>0.9834271467686114</v>
+        <v>1.006435467607567</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9154932376449262</v>
+        <v>1.000348766868985</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030240153041742</v>
+        <v>1.041858389395032</v>
       </c>
       <c r="J23">
-        <v>0.9866227248277264</v>
+        <v>1.008966070619271</v>
       </c>
       <c r="K23">
-        <v>0.9990136102272829</v>
+        <v>1.02157062254221</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9325906741514254</v>
+        <v>1.015600666404084</v>
       </c>
       <c r="N23">
-        <v>0.98802384226419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010398918169576</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020918998342219</v>
+      </c>
+      <c r="Q23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R23">
+        <v>1.026381849496894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9639035562251465</v>
+        <v>0.9847179758738299</v>
       </c>
       <c r="D24">
-        <v>0.9905054760662099</v>
+        <v>1.011102428764267</v>
       </c>
       <c r="E24">
-        <v>0.938164042401182</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9301371304074506</v>
+        <v>1.00551562331971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033170486400832</v>
+        <v>1.043587888483164</v>
       </c>
       <c r="J24">
-        <v>0.992865581354182</v>
+        <v>1.012817256241309</v>
       </c>
       <c r="K24">
-        <v>1.004701403306958</v>
+        <v>1.024937338762864</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9455132383918463</v>
+        <v>1.019446565867961</v>
       </c>
       <c r="N24">
-        <v>0.9942755643629788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014255572916935</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.023962848759959</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028754745916429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742286087477349</v>
+        <v>0.9922923344459048</v>
       </c>
       <c r="D25">
-        <v>0.9982491145191484</v>
+        <v>1.016300574780391</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718021</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.946002928131416</v>
+        <v>1.011315368580407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036297629579426</v>
+        <v>1.045444760921278</v>
       </c>
       <c r="J25">
-        <v>0.9996555370413683</v>
+        <v>1.017081905952706</v>
       </c>
       <c r="K25">
-        <v>1.010874671671885</v>
+        <v>1.028651007607781</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005834</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9595016114710397</v>
+        <v>1.023740531276359</v>
       </c>
       <c r="N25">
-        <v>1.00107516256606</v>
+        <v>1.018526278920084</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.027361306383569</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031377654467973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998066047801166</v>
+        <v>1.016287685159207</v>
       </c>
       <c r="D2">
-        <v>1.020250880674049</v>
+        <v>1.037168234519601</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.033200065241437</v>
       </c>
       <c r="F2">
-        <v>1.015784478753596</v>
+        <v>1.043634913734152</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046793905595747</v>
+        <v>1.05589549844141</v>
       </c>
       <c r="J2">
-        <v>1.020304757315331</v>
+        <v>1.037991913371865</v>
       </c>
       <c r="K2">
-        <v>1.031435117529824</v>
+        <v>1.048132948512682</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.044215464080644</v>
       </c>
       <c r="M2">
-        <v>1.027028204846154</v>
+        <v>1.054518059518329</v>
       </c>
       <c r="N2">
-        <v>1.02175370710131</v>
+        <v>1.016548585767463</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029963323258293</v>
+        <v>1.051719691954274</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033297550508786</v>
+        <v>1.045104424827527</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002143768736723</v>
+        <v>1.019422140357417</v>
       </c>
       <c r="D3">
-        <v>1.023048798078571</v>
+        <v>1.039301759079569</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.035969505182652</v>
       </c>
       <c r="F3">
-        <v>1.018957653933396</v>
+        <v>1.046080708668775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047718620853559</v>
+        <v>1.056694614104982</v>
       </c>
       <c r="J3">
-        <v>1.022576162569756</v>
+        <v>1.039396985958484</v>
       </c>
       <c r="K3">
-        <v>1.033395020292111</v>
+        <v>1.049455299572735</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.046161940394992</v>
       </c>
       <c r="M3">
-        <v>1.029353580802733</v>
+        <v>1.056156067959835</v>
       </c>
       <c r="N3">
-        <v>1.02402833801173</v>
+        <v>1.017018348027542</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031803727407867</v>
+        <v>1.053016044919391</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03468070995584</v>
+        <v>1.046036782598013</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004725979596557</v>
+        <v>1.021418306186956</v>
       </c>
       <c r="D4">
-        <v>1.024820538723998</v>
+        <v>1.040664213862516</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.037742030645493</v>
       </c>
       <c r="F4">
-        <v>1.020976690919724</v>
+        <v>1.047644785732408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048288373639914</v>
+        <v>1.057195034379463</v>
       </c>
       <c r="J4">
-        <v>1.024009562074528</v>
+        <v>1.040289556619053</v>
       </c>
       <c r="K4">
-        <v>1.034628353837475</v>
+        <v>1.050295431643774</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.047405321340984</v>
       </c>
       <c r="M4">
-        <v>1.030828369891858</v>
+        <v>1.057200274888616</v>
       </c>
       <c r="N4">
-        <v>1.025463773108213</v>
+        <v>1.017316850647368</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032970937424307</v>
+        <v>1.053842450210057</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03555369629254</v>
+        <v>1.046631704566989</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005801693478522</v>
+        <v>1.0222525242308</v>
       </c>
       <c r="D5">
-        <v>1.025560373640427</v>
+        <v>1.041236204932501</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.03848467115865</v>
       </c>
       <c r="F5">
-        <v>1.021818942106153</v>
+        <v>1.048300209790054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048523203886439</v>
+        <v>1.057403419321552</v>
       </c>
       <c r="J5">
-        <v>1.024606823234566</v>
+        <v>1.040663343913058</v>
       </c>
       <c r="K5">
-        <v>1.035142673183881</v>
+        <v>1.050648391602609</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.047926261918582</v>
       </c>
       <c r="M5">
-        <v>1.031442792464812</v>
+        <v>1.057637771378765</v>
       </c>
       <c r="N5">
-        <v>1.026061882447604</v>
+        <v>1.01744213088381</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03345721667637</v>
+        <v>1.054188693012835</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035924578265798</v>
+        <v>1.046888376745991</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005985458755791</v>
+        <v>1.022395215601639</v>
       </c>
       <c r="D6">
-        <v>1.025688957459091</v>
+        <v>1.041336202487783</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.038611562638132</v>
       </c>
       <c r="F6">
-        <v>1.021961587093931</v>
+        <v>1.048412708086368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048564725792621</v>
+        <v>1.057440550851124</v>
       </c>
       <c r="J6">
-        <v>1.024710422864085</v>
+        <v>1.040728862619269</v>
       </c>
       <c r="K6">
-        <v>1.03523338846979</v>
+        <v>1.050711602437614</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.048015947310408</v>
       </c>
       <c r="M6">
-        <v>1.0315472219746</v>
+        <v>1.057713687935249</v>
       </c>
       <c r="N6">
-        <v>1.02616562920048</v>
+        <v>1.017464400276402</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033539866444743</v>
+        <v>1.054248774761677</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035997514472119</v>
+        <v>1.046941735346431</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -695,52 +695,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00475082332833</v>
+        <v>1.021437681813097</v>
       </c>
       <c r="D7">
-        <v>1.02484346940792</v>
+        <v>1.040683128341205</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.037758593234303</v>
       </c>
       <c r="F7">
-        <v>1.020992479641885</v>
+        <v>1.047660796905317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048298153649422</v>
+        <v>1.057204186776894</v>
       </c>
       <c r="J7">
-        <v>1.024027731863062</v>
+        <v>1.040302567988543</v>
       </c>
       <c r="K7">
-        <v>1.034648120055831</v>
+        <v>1.050311294056242</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.047418845655186</v>
       </c>
       <c r="M7">
-        <v>1.030841058917193</v>
+        <v>1.057213293743276</v>
       </c>
       <c r="N7">
-        <v>1.02548196869993</v>
+        <v>1.017322048724451</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03298098004337</v>
+        <v>1.053852753574377</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03558789844446</v>
+        <v>1.046662847547007</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994687319064541</v>
+        <v>1.017363901048193</v>
       </c>
       <c r="D8">
-        <v>1.021220291765731</v>
+        <v>1.037906909042763</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.03414838123539</v>
       </c>
       <c r="F8">
-        <v>1.016869593654607</v>
+        <v>1.044474295952328</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047120369168924</v>
+        <v>1.056176855951547</v>
       </c>
       <c r="J8">
-        <v>1.021092356353249</v>
+        <v>1.038480129653298</v>
       </c>
       <c r="K8">
-        <v>1.032120292377549</v>
+        <v>1.048596768112563</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.044884835708515</v>
       </c>
       <c r="M8">
-        <v>1.027825803060227</v>
+        <v>1.055083737749069</v>
       </c>
       <c r="N8">
-        <v>1.022542424620201</v>
+        <v>1.016712879652247</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030594577888139</v>
+        <v>1.052167381384189</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033805094830587</v>
+        <v>1.045455079788256</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9896929403625331</v>
+        <v>1.009918196981719</v>
       </c>
       <c r="D9">
-        <v>1.01450814797166</v>
+        <v>1.032854577211861</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>1.027621615249579</v>
       </c>
       <c r="F9">
-        <v>1.009323576022487</v>
+        <v>1.038701460695862</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044810669474094</v>
+        <v>1.054226759289972</v>
       </c>
       <c r="J9">
-        <v>1.015614992254918</v>
+        <v>1.035125514777333</v>
       </c>
       <c r="K9">
-        <v>1.027370145697755</v>
+        <v>1.045436188545551</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.040281901134571</v>
       </c>
       <c r="M9">
-        <v>1.022267174415699</v>
+        <v>1.051196358490696</v>
       </c>
       <c r="N9">
-        <v>1.017057282036588</v>
+        <v>1.015590878201702</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02619522044764</v>
+        <v>1.049090823785229</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030443169794889</v>
+        <v>1.043217235505268</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9829735962892899</v>
+        <v>1.004810735856263</v>
       </c>
       <c r="D10">
-        <v>1.009905869176688</v>
+        <v>1.029431287476767</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>1.023241216771109</v>
       </c>
       <c r="F10">
-        <v>1.004430442761453</v>
+        <v>1.034841523431681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043161099761487</v>
+        <v>1.05286680804767</v>
       </c>
       <c r="J10">
-        <v>1.011879419384404</v>
+        <v>1.032834776866056</v>
       </c>
       <c r="K10">
-        <v>1.024098544161467</v>
+        <v>1.043288734100311</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>1.037203151184984</v>
       </c>
       <c r="M10">
-        <v>1.018720162310936</v>
+        <v>1.048608963299827</v>
       </c>
       <c r="N10">
-        <v>1.013316404224122</v>
+        <v>1.014828835893235</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.023440329659125</v>
+        <v>1.047094001371314</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028146862800434</v>
+        <v>1.041715547121513</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9810009449557624</v>
+        <v>1.002862745912868</v>
       </c>
       <c r="D11">
-        <v>1.008594808342975</v>
+        <v>1.028283374080073</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>1.021965347240677</v>
       </c>
       <c r="F11">
-        <v>1.004908109196262</v>
+        <v>1.033881715779184</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042780795689954</v>
+        <v>1.052492524708574</v>
       </c>
       <c r="J11">
-        <v>1.011186037532322</v>
+        <v>1.032116914352333</v>
       </c>
       <c r="K11">
-        <v>1.023356439170913</v>
+        <v>1.042690916646077</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.036484586341992</v>
       </c>
       <c r="M11">
-        <v>1.019738055560353</v>
+        <v>1.048191760901187</v>
       </c>
       <c r="N11">
-        <v>1.012622037690277</v>
+        <v>1.014618843491464</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024689155196124</v>
+        <v>1.047195699221388</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027655321646742</v>
+        <v>1.041325438396489</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9805802290249604</v>
+        <v>1.002239435176065</v>
       </c>
       <c r="D12">
-        <v>1.008328549208095</v>
+        <v>1.027975815278575</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.021723401766748</v>
       </c>
       <c r="F12">
-        <v>1.005955808376842</v>
+        <v>1.033789076495647</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042749370459759</v>
+        <v>1.052431921377418</v>
       </c>
       <c r="J12">
-        <v>1.011229830709826</v>
+        <v>1.031949319552044</v>
       </c>
       <c r="K12">
-        <v>1.023297908112221</v>
+        <v>1.042585977244593</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.036445923163026</v>
       </c>
       <c r="M12">
-        <v>1.020969787160841</v>
+        <v>1.048296351050002</v>
       </c>
       <c r="N12">
-        <v>1.012665893059117</v>
+        <v>1.014585166907269</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025994218376926</v>
+        <v>1.047601857787181</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027613937525594</v>
+        <v>1.041251244018703</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9813369705803403</v>
+        <v>1.002604913920602</v>
       </c>
       <c r="D13">
-        <v>1.008862591309248</v>
+        <v>1.028309277829955</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367009</v>
+        <v>1.022272864205976</v>
       </c>
       <c r="F13">
-        <v>1.007538333263421</v>
+        <v>1.034375367457375</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042997222944813</v>
+        <v>1.052622028014088</v>
       </c>
       <c r="J13">
-        <v>1.011857140523096</v>
+        <v>1.032207217419862</v>
       </c>
       <c r="K13">
-        <v>1.023778474730554</v>
+        <v>1.042871213796504</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964246</v>
+        <v>1.036942795005454</v>
       </c>
       <c r="M13">
-        <v>1.022478968100969</v>
+        <v>1.048830422432902</v>
       </c>
       <c r="N13">
-        <v>1.013294093724275</v>
+        <v>1.014690551988937</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02746722419032</v>
+        <v>1.048298578765658</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027951203314181</v>
+        <v>1.041450440937222</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9823848852015532</v>
+        <v>1.003310030847726</v>
       </c>
       <c r="D14">
-        <v>1.009589355693804</v>
+        <v>1.028834702569783</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>1.023015848848789</v>
       </c>
       <c r="F14">
-        <v>1.008858839928957</v>
+        <v>1.035093869360509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043292069677775</v>
+        <v>1.052869139496698</v>
       </c>
       <c r="J14">
-        <v>1.01254601995117</v>
+        <v>1.032581212311632</v>
       </c>
       <c r="K14">
-        <v>1.024349403342962</v>
+        <v>1.043248866293428</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.037532809556329</v>
       </c>
       <c r="M14">
-        <v>1.023632355479165</v>
+        <v>1.049399126287855</v>
       </c>
       <c r="N14">
-        <v>1.013983951440153</v>
+        <v>1.014827645412202</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.02855382845269</v>
+        <v>1.048920229021971</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028356314043632</v>
+        <v>1.041718861769189</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9829133103855834</v>
+        <v>1.003700610611789</v>
       </c>
       <c r="D15">
-        <v>1.009954492687012</v>
+        <v>1.029108804721897</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.023378428560936</v>
       </c>
       <c r="F15">
-        <v>1.00934823556255</v>
+        <v>1.03542843495503</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043431761561924</v>
+        <v>1.052988181997242</v>
       </c>
       <c r="J15">
-        <v>1.012859097018648</v>
+        <v>1.032770083739949</v>
       </c>
       <c r="K15">
-        <v>1.024620193695025</v>
+        <v>1.043432886735211</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>1.037802973924493</v>
       </c>
       <c r="M15">
-        <v>1.024025024867258</v>
+        <v>1.049643389244894</v>
       </c>
       <c r="N15">
-        <v>1.014297473112977</v>
+        <v>1.014893405765559</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028902023816902</v>
+        <v>1.049150589688875</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028553700260575</v>
+        <v>1.041854788598373</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9856030528294767</v>
+        <v>1.005791176099049</v>
       </c>
       <c r="D16">
-        <v>1.011796735786376</v>
+        <v>1.030498398504968</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>1.025133865013427</v>
       </c>
       <c r="F16">
-        <v>1.011155792578798</v>
+        <v>1.036972803783018</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044098542113108</v>
+        <v>1.053545186733954</v>
       </c>
       <c r="J16">
-        <v>1.014321098792565</v>
+        <v>1.033700839097884</v>
       </c>
       <c r="K16">
-        <v>1.025920151828468</v>
+        <v>1.044302868673369</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.039028288568091</v>
       </c>
       <c r="M16">
-        <v>1.025290410381729</v>
+        <v>1.050670303704619</v>
       </c>
       <c r="N16">
-        <v>1.015761551097107</v>
+        <v>1.015199848718447</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029863149514486</v>
+        <v>1.04992380391065</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029476024704347</v>
+        <v>1.042473027946315</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9871278944825438</v>
+        <v>1.007027592442873</v>
       </c>
       <c r="D17">
-        <v>1.012836949392086</v>
+        <v>1.031290514293415</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.026091877377323</v>
       </c>
       <c r="F17">
-        <v>1.011857388945968</v>
+        <v>1.037778267819343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044455562081521</v>
+        <v>1.053840476339061</v>
       </c>
       <c r="J17">
-        <v>1.015089876561874</v>
+        <v>1.034218363842414</v>
       </c>
       <c r="K17">
-        <v>1.026623582810913</v>
+        <v>1.044771283454488</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.039657381642322</v>
       </c>
       <c r="M17">
-        <v>1.025660660985229</v>
+        <v>1.051154816146414</v>
       </c>
       <c r="N17">
-        <v>1.016531420619028</v>
+        <v>1.015362846205254</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.030025672004921</v>
+        <v>1.05017864914632</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029975992729989</v>
+        <v>1.042806776380515</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877379717175954</v>
+        <v>1.007637144268654</v>
       </c>
       <c r="D18">
-        <v>1.013239977823685</v>
+        <v>1.031624073856217</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>1.026422702949877</v>
       </c>
       <c r="F18">
-        <v>1.011496364397451</v>
+        <v>1.037986096406267</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044559647208963</v>
+        <v>1.053927833170849</v>
       </c>
       <c r="J18">
-        <v>1.015272363790338</v>
+        <v>1.03441470221627</v>
       </c>
       <c r="K18">
-        <v>1.026834019626408</v>
+        <v>1.044918383246551</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.039800417065458</v>
       </c>
       <c r="M18">
-        <v>1.025119563013885</v>
+        <v>1.051179843764379</v>
       </c>
       <c r="N18">
-        <v>1.016714167000288</v>
+        <v>1.015411651528969</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029357849792654</v>
+        <v>1.049962644152344</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030113046079568</v>
+        <v>1.042899244299978</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9874710525556701</v>
+        <v>1.007686212717793</v>
       </c>
       <c r="D19">
-        <v>1.013038788940522</v>
+        <v>1.031554493501854</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>1.026188038046413</v>
       </c>
       <c r="F19">
-        <v>1.010056560056024</v>
+        <v>1.037657341675781</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044423546910997</v>
+        <v>1.053835435796594</v>
       </c>
       <c r="J19">
-        <v>1.014878439826846</v>
+        <v>1.034329007274153</v>
       </c>
       <c r="K19">
-        <v>1.02657283117001</v>
+        <v>1.044788165217842</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>1.039507335982476</v>
       </c>
       <c r="M19">
-        <v>1.023640308339971</v>
+        <v>1.050795013630647</v>
       </c>
       <c r="N19">
-        <v>1.016319683619585</v>
+        <v>1.015362298487537</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027858670219532</v>
+        <v>1.049335815430682</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029934824462005</v>
+        <v>1.042813516961804</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9847468449948034</v>
+        <v>1.00615334655478</v>
       </c>
       <c r="D20">
-        <v>1.011132802096534</v>
+        <v>1.030344010502489</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>1.024390635731013</v>
       </c>
       <c r="F20">
-        <v>1.005721512107139</v>
+        <v>1.035858748555069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043611527409322</v>
+        <v>1.053238235768678</v>
       </c>
       <c r="J20">
-        <v>1.01287868216714</v>
+        <v>1.033449110539722</v>
       </c>
       <c r="K20">
-        <v>1.024982679094193</v>
+        <v>1.043873487213139</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>1.038017747793532</v>
       </c>
       <c r="M20">
-        <v>1.019664496206164</v>
+        <v>1.049299067966441</v>
       </c>
       <c r="N20">
-        <v>1.014317086074626</v>
+        <v>1.015035721139953</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.024176940842813</v>
+        <v>1.047629700180472</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028814471336714</v>
+        <v>1.042170700261745</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9794785273878277</v>
+        <v>1.002267738582971</v>
       </c>
       <c r="D21">
-        <v>1.007517174759197</v>
+        <v>1.027716189979294</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.021002347705836</v>
       </c>
       <c r="F21">
-        <v>1.001531700785206</v>
+        <v>1.032837747327977</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04226611279188</v>
+        <v>1.052158016688793</v>
       </c>
       <c r="J21">
-        <v>1.009860024981217</v>
+        <v>1.031670951607441</v>
       </c>
       <c r="K21">
-        <v>1.022357517869773</v>
+        <v>1.042190831634303</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.035596457158805</v>
       </c>
       <c r="M21">
-        <v>1.016484112615143</v>
+        <v>1.047222606816651</v>
       </c>
       <c r="N21">
-        <v>1.011294142049254</v>
+        <v>1.014438808809511</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021618206114862</v>
+        <v>1.045945895995935</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026961619988408</v>
+        <v>1.040984214626616</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9761402792511235</v>
+        <v>0.9997928112892087</v>
       </c>
       <c r="D22">
-        <v>1.005226006058519</v>
+        <v>1.026051626668889</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>1.018879300047741</v>
       </c>
       <c r="F22">
-        <v>0.9990121670670595</v>
+        <v>1.030952812319948</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04140208748282</v>
+        <v>1.051467188162757</v>
       </c>
       <c r="J22">
-        <v>1.007964632228867</v>
+        <v>1.03054210063385</v>
       </c>
       <c r="K22">
-        <v>1.020694640812163</v>
+        <v>1.041124078615035</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>1.034085808069999</v>
       </c>
       <c r="M22">
-        <v>1.014603218553456</v>
+        <v>1.04593505426946</v>
       </c>
       <c r="N22">
-        <v>1.009396057621792</v>
+        <v>1.014060620420682</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.020129562544711</v>
+        <v>1.044926891398893</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02577222306403</v>
+        <v>1.040216588613598</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779092238543927</v>
+        <v>1.001101529391845</v>
       </c>
       <c r="D23">
-        <v>1.006435467607567</v>
+        <v>1.026926501852128</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>1.02000109144811</v>
       </c>
       <c r="F23">
-        <v>1.000348766868985</v>
+        <v>1.031948020426659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041858389395032</v>
+        <v>1.051829794350956</v>
       </c>
       <c r="J23">
-        <v>1.008966070619271</v>
+        <v>1.031135464845268</v>
       </c>
       <c r="K23">
-        <v>1.02157062254221</v>
+        <v>1.041681856107141</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>1.034882584080322</v>
       </c>
       <c r="M23">
-        <v>1.015600666404084</v>
+        <v>1.046613288069416</v>
       </c>
       <c r="N23">
-        <v>1.010398918169576</v>
+        <v>1.014258513362046</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020918998342219</v>
+        <v>1.045463664510486</v>
       </c>
       <c r="Q23">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026381849496894</v>
+        <v>1.040601399176012</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1596,52 +1596,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9847179758738299</v>
+        <v>1.006175973298253</v>
       </c>
       <c r="D24">
-        <v>1.011102428764267</v>
+        <v>1.030337090453467</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011825</v>
+        <v>1.024373045279209</v>
       </c>
       <c r="F24">
-        <v>1.00551562331971</v>
+        <v>1.035825293829186</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043587888483164</v>
+        <v>1.053224064555536</v>
       </c>
       <c r="J24">
-        <v>1.012817256241309</v>
+        <v>1.03343833953459</v>
       </c>
       <c r="K24">
-        <v>1.024937338762864</v>
+        <v>1.043851604973018</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.037985248027827</v>
       </c>
       <c r="M24">
-        <v>1.019446565867961</v>
+        <v>1.049251188917479</v>
       </c>
       <c r="N24">
-        <v>1.014255572916935</v>
+        <v>1.015028212259892</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.023962848759959</v>
+        <v>1.047551368956069</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028754745916429</v>
+        <v>1.042128053232836</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9922923344459048</v>
+        <v>1.011887362061405</v>
       </c>
       <c r="D25">
-        <v>1.016300574780391</v>
+        <v>1.034195564351911</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>1.029338580423369</v>
       </c>
       <c r="F25">
-        <v>1.011315368580407</v>
+        <v>1.040223101055798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045444760921278</v>
+        <v>1.054756403327271</v>
       </c>
       <c r="J25">
-        <v>1.017081905952706</v>
+        <v>1.036021186450681</v>
       </c>
       <c r="K25">
-        <v>1.028651007607781</v>
+        <v>1.046285256496911</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.041497905962667</v>
       </c>
       <c r="M25">
-        <v>1.023740531276359</v>
+        <v>1.052227520157866</v>
       </c>
       <c r="N25">
-        <v>1.018526278920084</v>
+        <v>1.015891792614775</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.027361306383569</v>
+        <v>1.04990690908369</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031377654467973</v>
+        <v>1.043845905233866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016287685159207</v>
+        <v>1.015302649994902</v>
       </c>
       <c r="D2">
-        <v>1.037168234519601</v>
+        <v>1.035519854264448</v>
       </c>
       <c r="E2">
-        <v>1.033200065241437</v>
+        <v>1.03242558725632</v>
       </c>
       <c r="F2">
-        <v>1.043634913734152</v>
+        <v>1.042614805681395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05589549844141</v>
+        <v>1.055017988186526</v>
       </c>
       <c r="J2">
-        <v>1.037991913371865</v>
+        <v>1.037035100105324</v>
       </c>
       <c r="K2">
-        <v>1.048132948512682</v>
+        <v>1.046505563847553</v>
       </c>
       <c r="L2">
-        <v>1.044215464080644</v>
+        <v>1.043450935209457</v>
       </c>
       <c r="M2">
-        <v>1.054518059518329</v>
+        <v>1.053510734893735</v>
       </c>
       <c r="N2">
-        <v>1.016548585767463</v>
+        <v>1.017012932207103</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051719691954274</v>
+        <v>1.050922473789405</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045104424827527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043962442436884</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024383005275718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019422140357417</v>
+        <v>1.018337691557843</v>
       </c>
       <c r="D3">
-        <v>1.039301759079569</v>
+        <v>1.037521249596091</v>
       </c>
       <c r="E3">
-        <v>1.035969505182652</v>
+        <v>1.035127507934846</v>
       </c>
       <c r="F3">
-        <v>1.046080708668775</v>
+        <v>1.044976253516628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056694614104982</v>
+        <v>1.055740369218415</v>
       </c>
       <c r="J3">
-        <v>1.039396985958484</v>
+        <v>1.038340636097162</v>
       </c>
       <c r="K3">
-        <v>1.049455299572735</v>
+        <v>1.047695534099104</v>
       </c>
       <c r="L3">
-        <v>1.046161940394992</v>
+        <v>1.045329820151625</v>
       </c>
       <c r="M3">
-        <v>1.056156067959835</v>
+        <v>1.055064265032631</v>
       </c>
       <c r="N3">
-        <v>1.017018348027542</v>
+        <v>1.017359290499355</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053016044919391</v>
+        <v>1.05215197027883</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046036782598013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044800923804748</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024602559028664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021418306186956</v>
+        <v>1.020271021376576</v>
       </c>
       <c r="D4">
-        <v>1.040664213862516</v>
+        <v>1.038799852554453</v>
       </c>
       <c r="E4">
-        <v>1.037742030645493</v>
+        <v>1.036857414788878</v>
       </c>
       <c r="F4">
-        <v>1.047644785732408</v>
+        <v>1.046486890625867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057195034379463</v>
+        <v>1.05619201831869</v>
       </c>
       <c r="J4">
-        <v>1.040289556619053</v>
+        <v>1.039170031637384</v>
       </c>
       <c r="K4">
-        <v>1.050295431643774</v>
+        <v>1.048451507350034</v>
       </c>
       <c r="L4">
-        <v>1.047405321340984</v>
+        <v>1.046530458545204</v>
       </c>
       <c r="M4">
-        <v>1.057200274888616</v>
+        <v>1.056054855497318</v>
       </c>
       <c r="N4">
-        <v>1.017316850647368</v>
+        <v>1.01757942283523</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053842450210057</v>
+        <v>1.052935943396959</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046631704566989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045336423212077</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024739761411313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0222525242308</v>
+        <v>1.02107908908128</v>
       </c>
       <c r="D5">
-        <v>1.041236204932501</v>
+        <v>1.039336927787455</v>
       </c>
       <c r="E5">
-        <v>1.03848467115865</v>
+        <v>1.037582340176381</v>
       </c>
       <c r="F5">
-        <v>1.048300209790054</v>
+        <v>1.04712006759471</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057403419321552</v>
+        <v>1.056380066267978</v>
       </c>
       <c r="J5">
-        <v>1.040663343913058</v>
+        <v>1.039517471160907</v>
       </c>
       <c r="K5">
-        <v>1.050648391602609</v>
+        <v>1.048769390576557</v>
       </c>
       <c r="L5">
-        <v>1.047926261918582</v>
+        <v>1.047033615246739</v>
       </c>
       <c r="M5">
-        <v>1.057637771378765</v>
+        <v>1.056470010724102</v>
       </c>
       <c r="N5">
-        <v>1.01744213088381</v>
+        <v>1.017671856214834</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054188693012835</v>
+        <v>1.053264505309267</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046888376745991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045569004757151</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02479734178787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022395215601639</v>
+        <v>1.021217314964387</v>
       </c>
       <c r="D6">
-        <v>1.041336202487783</v>
+        <v>1.039431027654804</v>
       </c>
       <c r="E6">
-        <v>1.038611562638132</v>
+        <v>1.037706214989992</v>
       </c>
       <c r="F6">
-        <v>1.048412708086368</v>
+        <v>1.047228791451583</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057440550851124</v>
+        <v>1.056413747929891</v>
       </c>
       <c r="J6">
-        <v>1.040728862619269</v>
+        <v>1.039578490054966</v>
       </c>
       <c r="K6">
-        <v>1.050711602437614</v>
+        <v>1.04882667529643</v>
       </c>
       <c r="L6">
-        <v>1.048015947310408</v>
+        <v>1.047120272012237</v>
       </c>
       <c r="M6">
-        <v>1.057713687935249</v>
+        <v>1.056542136365582</v>
       </c>
       <c r="N6">
-        <v>1.017464400276402</v>
+        <v>1.017688328874721</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054248774761677</v>
+        <v>1.05332158692864</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046941735346431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045619041362164</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024808221808358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021437681813097</v>
+        <v>1.020296317481679</v>
       </c>
       <c r="D7">
-        <v>1.040683128341205</v>
+        <v>1.038822551989562</v>
       </c>
       <c r="E7">
-        <v>1.037758593234303</v>
+        <v>1.036876633670223</v>
       </c>
       <c r="F7">
-        <v>1.047660796905317</v>
+        <v>1.046505845265931</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057204186776894</v>
+        <v>1.056204075830396</v>
       </c>
       <c r="J7">
-        <v>1.040302567988543</v>
+        <v>1.039188808559455</v>
       </c>
       <c r="K7">
-        <v>1.050311294056242</v>
+        <v>1.048471105443241</v>
       </c>
       <c r="L7">
-        <v>1.047418845655186</v>
+        <v>1.046546606217807</v>
       </c>
       <c r="M7">
-        <v>1.057213293743276</v>
+        <v>1.056070781465025</v>
       </c>
       <c r="N7">
-        <v>1.017322048724451</v>
+        <v>1.017610796363028</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053852753574377</v>
+        <v>1.052948547519859</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046662847547007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045372204816648</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024745323542463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017363901048193</v>
+        <v>1.016364571823144</v>
       </c>
       <c r="D8">
-        <v>1.037906909042763</v>
+        <v>1.036226785994832</v>
       </c>
       <c r="E8">
-        <v>1.03414838123539</v>
+        <v>1.03336007232592</v>
       </c>
       <c r="F8">
-        <v>1.044474295952328</v>
+        <v>1.04343559265693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056176855951547</v>
+        <v>1.055283132193458</v>
       </c>
       <c r="J8">
-        <v>1.038480129653298</v>
+        <v>1.037508492779002</v>
       </c>
       <c r="K8">
-        <v>1.048596768112563</v>
+        <v>1.046937421945703</v>
       </c>
       <c r="L8">
-        <v>1.044884835708515</v>
+        <v>1.044106353244425</v>
       </c>
       <c r="M8">
-        <v>1.055083737749069</v>
+        <v>1.054057669558252</v>
       </c>
       <c r="N8">
-        <v>1.016712879652247</v>
+        <v>1.017217544235277</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052167381384189</v>
+        <v>1.051355329638325</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045455079788256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044292764779474</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024466632281027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009918196981719</v>
+        <v>1.009160749006435</v>
       </c>
       <c r="D9">
-        <v>1.032854577211861</v>
+        <v>1.031491730080125</v>
       </c>
       <c r="E9">
-        <v>1.027621615249579</v>
+        <v>1.026997481454206</v>
       </c>
       <c r="F9">
-        <v>1.038701460695862</v>
+        <v>1.037866161628231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054226759289972</v>
+        <v>1.053517164226479</v>
       </c>
       <c r="J9">
-        <v>1.035125514777333</v>
+        <v>1.034394113756992</v>
       </c>
       <c r="K9">
-        <v>1.045436188545551</v>
+        <v>1.044093733199444</v>
       </c>
       <c r="L9">
-        <v>1.040281901134571</v>
+        <v>1.039667219015057</v>
       </c>
       <c r="M9">
-        <v>1.051196358490696</v>
+        <v>1.050373371527668</v>
       </c>
       <c r="N9">
-        <v>1.015590878201702</v>
+        <v>1.016400502491174</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049090823785229</v>
+        <v>1.048439492141228</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043217235505268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04227869385712</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023927876502153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004810735856263</v>
+        <v>1.004248323720143</v>
       </c>
       <c r="D10">
-        <v>1.029431287476767</v>
+        <v>1.028304404067784</v>
       </c>
       <c r="E10">
-        <v>1.023241216771109</v>
+        <v>1.022743607096639</v>
       </c>
       <c r="F10">
-        <v>1.034841523431681</v>
+        <v>1.034160330454238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05286680804767</v>
+        <v>1.05229676120216</v>
       </c>
       <c r="J10">
-        <v>1.032834776866056</v>
+        <v>1.032294395164074</v>
       </c>
       <c r="K10">
-        <v>1.043288734100311</v>
+        <v>1.042180751614396</v>
       </c>
       <c r="L10">
-        <v>1.037203151184984</v>
+        <v>1.036714012042478</v>
       </c>
       <c r="M10">
-        <v>1.048608963299827</v>
+        <v>1.047939036205087</v>
       </c>
       <c r="N10">
-        <v>1.014828835893235</v>
+        <v>1.015962654896145</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047094001371314</v>
+        <v>1.046563835988221</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041715547121513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040944463761739</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023561155476982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002862745912868</v>
+        <v>1.002400392434598</v>
       </c>
       <c r="D11">
-        <v>1.028283374080073</v>
+        <v>1.027255365975374</v>
       </c>
       <c r="E11">
-        <v>1.021965347240677</v>
+        <v>1.021518467692892</v>
       </c>
       <c r="F11">
-        <v>1.033881715779184</v>
+        <v>1.033266997809206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052492524708574</v>
+        <v>1.051985122899401</v>
       </c>
       <c r="J11">
-        <v>1.032116914352333</v>
+        <v>1.031673652104074</v>
       </c>
       <c r="K11">
-        <v>1.042690916646077</v>
+        <v>1.04168096141273</v>
       </c>
       <c r="L11">
-        <v>1.036484586341992</v>
+        <v>1.036045675113898</v>
       </c>
       <c r="M11">
-        <v>1.048191760901187</v>
+        <v>1.047587681689897</v>
       </c>
       <c r="N11">
-        <v>1.014618843491464</v>
+        <v>1.016045504112264</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047195699221388</v>
+        <v>1.046717880115257</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041325438396489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040626876806108</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02350286811013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002239435176065</v>
+        <v>1.001806705955961</v>
       </c>
       <c r="D12">
-        <v>1.027975815278575</v>
+        <v>1.0269740228666</v>
       </c>
       <c r="E12">
-        <v>1.021723401766748</v>
+        <v>1.02128621773295</v>
       </c>
       <c r="F12">
-        <v>1.033789076495647</v>
+        <v>1.033191757480687</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052431921377418</v>
+        <v>1.051941920868863</v>
       </c>
       <c r="J12">
-        <v>1.031949319552044</v>
+        <v>1.031534799076178</v>
       </c>
       <c r="K12">
-        <v>1.042585977244593</v>
+        <v>1.041602068088449</v>
       </c>
       <c r="L12">
-        <v>1.036445923163026</v>
+        <v>1.036016662512014</v>
       </c>
       <c r="M12">
-        <v>1.048296351050002</v>
+        <v>1.047709534649434</v>
       </c>
       <c r="N12">
-        <v>1.014585166907269</v>
+        <v>1.016124605682822</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047601857787181</v>
+        <v>1.047137847674029</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041251244018703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040571098610016</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023513706438632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002604913920602</v>
+        <v>1.002140361890941</v>
       </c>
       <c r="D13">
-        <v>1.028309277829955</v>
+        <v>1.027273366557149</v>
       </c>
       <c r="E13">
-        <v>1.022272864205976</v>
+        <v>1.021811078448427</v>
       </c>
       <c r="F13">
-        <v>1.034375367457375</v>
+        <v>1.033754531079333</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052622028014088</v>
+        <v>1.05211125397775</v>
       </c>
       <c r="J13">
-        <v>1.032207217419862</v>
+        <v>1.031762122403578</v>
       </c>
       <c r="K13">
-        <v>1.042871213796504</v>
+        <v>1.04185371846454</v>
       </c>
       <c r="L13">
-        <v>1.036942795005454</v>
+        <v>1.036489339157654</v>
       </c>
       <c r="M13">
-        <v>1.048830422432902</v>
+        <v>1.048220450184695</v>
       </c>
       <c r="N13">
-        <v>1.014690551988937</v>
+        <v>1.016175057969608</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048298578765658</v>
+        <v>1.047816378145348</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041450440937222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04074630360353</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023583299950422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003310030847726</v>
+        <v>1.002795860330453</v>
       </c>
       <c r="D14">
-        <v>1.028834702569783</v>
+        <v>1.027747983535125</v>
       </c>
       <c r="E14">
-        <v>1.023015848848789</v>
+        <v>1.022522274188731</v>
       </c>
       <c r="F14">
-        <v>1.035093869360509</v>
+        <v>1.03443850963464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052869139496698</v>
+        <v>1.052326786978649</v>
       </c>
       <c r="J14">
-        <v>1.032581212311632</v>
+        <v>1.03208827756355</v>
       </c>
       <c r="K14">
-        <v>1.043248866293428</v>
+        <v>1.04218123087182</v>
       </c>
       <c r="L14">
-        <v>1.037532809556329</v>
+        <v>1.037048024357226</v>
       </c>
       <c r="M14">
-        <v>1.049399126287855</v>
+        <v>1.048755089625575</v>
       </c>
       <c r="N14">
-        <v>1.014827645412202</v>
+        <v>1.016198894177212</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048920229021971</v>
+        <v>1.048411167448428</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041718861769189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040979408548645</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023659168888703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003700610611789</v>
+        <v>1.003161298593968</v>
       </c>
       <c r="D15">
-        <v>1.029108804721897</v>
+        <v>1.027996642808505</v>
       </c>
       <c r="E15">
-        <v>1.023378428560936</v>
+        <v>1.022869980594483</v>
       </c>
       <c r="F15">
-        <v>1.03542843495503</v>
+        <v>1.034755884686197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052988181997242</v>
+        <v>1.052429909157019</v>
       </c>
       <c r="J15">
-        <v>1.032770083739949</v>
+        <v>1.032252855926089</v>
       </c>
       <c r="K15">
-        <v>1.043432886735211</v>
+        <v>1.042340109495534</v>
       </c>
       <c r="L15">
-        <v>1.037802973924493</v>
+        <v>1.037303510440066</v>
       </c>
       <c r="M15">
-        <v>1.049643389244894</v>
+        <v>1.048982370690775</v>
       </c>
       <c r="N15">
-        <v>1.014893405765559</v>
+        <v>1.016202897734528</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049150589688875</v>
+        <v>1.04862811886966</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041854788598373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041098128524541</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023692716217165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005791176099049</v>
+        <v>1.005133024981564</v>
       </c>
       <c r="D16">
-        <v>1.030498398504968</v>
+        <v>1.029264441655624</v>
       </c>
       <c r="E16">
-        <v>1.025133865013427</v>
+        <v>1.024558926077924</v>
       </c>
       <c r="F16">
-        <v>1.036972803783018</v>
+        <v>1.036218622549667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053545186733954</v>
+        <v>1.052910822069895</v>
       </c>
       <c r="J16">
-        <v>1.033700839097884</v>
+        <v>1.033068318869983</v>
       </c>
       <c r="K16">
-        <v>1.044302868673369</v>
+        <v>1.043089496019959</v>
       </c>
       <c r="L16">
-        <v>1.039028288568091</v>
+        <v>1.038463062414797</v>
       </c>
       <c r="M16">
-        <v>1.050670303704619</v>
+        <v>1.049928494609173</v>
       </c>
       <c r="N16">
-        <v>1.015199848718447</v>
+        <v>1.01621090073843</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04992380391065</v>
+        <v>1.049337459523629</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042473027946315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041631403928982</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023833943505683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007027592442873</v>
+        <v>1.006311302632731</v>
       </c>
       <c r="D17">
-        <v>1.031290514293415</v>
+        <v>1.029994383451646</v>
       </c>
       <c r="E17">
-        <v>1.026091877377323</v>
+        <v>1.025484944547783</v>
       </c>
       <c r="F17">
-        <v>1.037778267819343</v>
+        <v>1.036982810807881</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053840476339061</v>
+        <v>1.053167717690195</v>
       </c>
       <c r="J17">
-        <v>1.034218363842414</v>
+        <v>1.0335290887789</v>
       </c>
       <c r="K17">
-        <v>1.044771283454488</v>
+        <v>1.043496176067107</v>
       </c>
       <c r="L17">
-        <v>1.039657381642322</v>
+        <v>1.039060413530897</v>
       </c>
       <c r="M17">
-        <v>1.051154816146414</v>
+        <v>1.050372047631572</v>
       </c>
       <c r="N17">
-        <v>1.015362846205254</v>
+        <v>1.016232826460591</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05017864914632</v>
+        <v>1.049559868513423</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042806776380515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041921752201098</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023902763521675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007637144268654</v>
+        <v>1.00690166555599</v>
       </c>
       <c r="D18">
-        <v>1.031624073856217</v>
+        <v>1.030306612851814</v>
       </c>
       <c r="E18">
-        <v>1.026422702949877</v>
+        <v>1.025807337285097</v>
       </c>
       <c r="F18">
-        <v>1.037986096406267</v>
+        <v>1.037176712856858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053927833170849</v>
+        <v>1.053241957489254</v>
       </c>
       <c r="J18">
-        <v>1.03441470221627</v>
+        <v>1.033706448176513</v>
       </c>
       <c r="K18">
-        <v>1.044918383246551</v>
+        <v>1.0436219458218</v>
       </c>
       <c r="L18">
-        <v>1.039800417065458</v>
+        <v>1.039194990699256</v>
       </c>
       <c r="M18">
-        <v>1.051179843764379</v>
+        <v>1.05038316619063</v>
       </c>
       <c r="N18">
-        <v>1.015411651528969</v>
+        <v>1.016227580577403</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049962644152344</v>
+        <v>1.049332739013463</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042899244299978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041998004659942</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023908555814357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007686212717793</v>
+        <v>1.006961725094844</v>
       </c>
       <c r="D19">
-        <v>1.031554493501854</v>
+        <v>1.030249477986298</v>
       </c>
       <c r="E19">
-        <v>1.026188038046413</v>
+        <v>1.025583515450926</v>
       </c>
       <c r="F19">
-        <v>1.037657341675781</v>
+        <v>1.036856438287731</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053835435796594</v>
+        <v>1.053156912715455</v>
       </c>
       <c r="J19">
-        <v>1.034329007274153</v>
+        <v>1.033631176897653</v>
       </c>
       <c r="K19">
-        <v>1.044788165217842</v>
+        <v>1.043503867126592</v>
       </c>
       <c r="L19">
-        <v>1.039507335982476</v>
+        <v>1.038912531088656</v>
       </c>
       <c r="M19">
-        <v>1.050795013630647</v>
+        <v>1.050006626323311</v>
       </c>
       <c r="N19">
-        <v>1.015362298487537</v>
+        <v>1.016181901799967</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049335815430682</v>
+        <v>1.048712264955826</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042813516961804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041921484752391</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023861097772715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00615334655478</v>
+        <v>1.005521460275837</v>
       </c>
       <c r="D20">
-        <v>1.030344010502489</v>
+        <v>1.02914324462389</v>
       </c>
       <c r="E20">
-        <v>1.024390635731013</v>
+        <v>1.023850701894678</v>
       </c>
       <c r="F20">
-        <v>1.035858748555069</v>
+        <v>1.035127689174824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053238235768678</v>
+        <v>1.052622606076821</v>
       </c>
       <c r="J20">
-        <v>1.033449110539722</v>
+        <v>1.032841185679769</v>
       </c>
       <c r="K20">
-        <v>1.043873487213139</v>
+        <v>1.042692297023174</v>
       </c>
       <c r="L20">
-        <v>1.038017747793532</v>
+        <v>1.037486741152446</v>
       </c>
       <c r="M20">
-        <v>1.049299067966441</v>
+        <v>1.048579757617797</v>
       </c>
       <c r="N20">
-        <v>1.015035721139953</v>
+        <v>1.016011057794672</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047629700180472</v>
+        <v>1.047060447245909</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042170700261745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041351957694664</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023662117270325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002267738582971</v>
+        <v>1.001874698316876</v>
       </c>
       <c r="D21">
-        <v>1.027716189979294</v>
+        <v>1.02675706330857</v>
       </c>
       <c r="E21">
-        <v>1.021002347705836</v>
+        <v>1.020605455013182</v>
       </c>
       <c r="F21">
-        <v>1.032837747327977</v>
+        <v>1.032271557300738</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052158016688793</v>
+        <v>1.051693844238929</v>
       </c>
       <c r="J21">
-        <v>1.031670951607441</v>
+        <v>1.03129424773441</v>
       </c>
       <c r="K21">
-        <v>1.042190831634303</v>
+        <v>1.041248647839084</v>
       </c>
       <c r="L21">
-        <v>1.035596457158805</v>
+        <v>1.035206690807869</v>
       </c>
       <c r="M21">
-        <v>1.047222606816651</v>
+        <v>1.046666285521567</v>
       </c>
       <c r="N21">
-        <v>1.014438808809511</v>
+        <v>1.016014019925127</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045945895995935</v>
+        <v>1.045505608153042</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040984214626616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040334782922969</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023381322610315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,158 +1679,185 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9997928112892087</v>
+        <v>0.999549240087231</v>
       </c>
       <c r="D22">
-        <v>1.026051626668889</v>
+        <v>1.025243762670666</v>
       </c>
       <c r="E22">
-        <v>1.018879300047741</v>
+        <v>1.018572999560224</v>
       </c>
       <c r="F22">
-        <v>1.030952812319948</v>
+        <v>1.030489844192163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051467188162757</v>
+        <v>1.051097473961732</v>
       </c>
       <c r="J22">
-        <v>1.03054210063385</v>
+        <v>1.030309230081687</v>
       </c>
       <c r="K22">
-        <v>1.041124078615035</v>
+        <v>1.04033119194594</v>
       </c>
       <c r="L22">
-        <v>1.034085808069999</v>
+        <v>1.033785287492798</v>
       </c>
       <c r="M22">
-        <v>1.04593505426946</v>
+        <v>1.045480559626647</v>
       </c>
       <c r="N22">
-        <v>1.014060620420682</v>
+        <v>1.016008442677956</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044926891398893</v>
+        <v>1.044567191465188</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040216588613598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039671413706123</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023201528607164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.001101529391845</v>
+        <v>1.000768829655523</v>
       </c>
       <c r="D23">
-        <v>1.026926501852128</v>
+        <v>1.026031763236362</v>
       </c>
       <c r="E23">
-        <v>1.02000109144811</v>
+        <v>1.019641759885817</v>
       </c>
       <c r="F23">
-        <v>1.031948020426659</v>
+        <v>1.031425289539353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051829794350956</v>
+        <v>1.051405105195019</v>
       </c>
       <c r="J23">
-        <v>1.031135464845268</v>
+        <v>1.030816961676235</v>
       </c>
       <c r="K23">
-        <v>1.041681856107141</v>
+        <v>1.040803289564998</v>
       </c>
       <c r="L23">
-        <v>1.034882584080322</v>
+        <v>1.034529858248112</v>
       </c>
       <c r="M23">
-        <v>1.046613288069416</v>
+        <v>1.046099881925438</v>
       </c>
       <c r="N23">
-        <v>1.014258513362046</v>
+        <v>1.01596762869841</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045463664510486</v>
+        <v>1.045057340630855</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040601399176012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039994703667055</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023292197827692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006175973298253</v>
+        <v>1.005544632963783</v>
       </c>
       <c r="D24">
-        <v>1.030337090453467</v>
+        <v>1.029136804585189</v>
       </c>
       <c r="E24">
-        <v>1.024373045279209</v>
+        <v>1.02383412432264</v>
       </c>
       <c r="F24">
-        <v>1.035825293829186</v>
+        <v>1.035094722106111</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053224064555536</v>
+        <v>1.052608749958492</v>
       </c>
       <c r="J24">
-        <v>1.03343833953459</v>
+        <v>1.032830904811751</v>
       </c>
       <c r="K24">
-        <v>1.043851604973018</v>
+        <v>1.042670862279679</v>
       </c>
       <c r="L24">
-        <v>1.037985248027827</v>
+        <v>1.037455226492912</v>
       </c>
       <c r="M24">
-        <v>1.049251188917479</v>
+        <v>1.048532344369191</v>
       </c>
       <c r="N24">
-        <v>1.015028212259892</v>
+        <v>1.016001621910432</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047551368956069</v>
+        <v>1.04698245696904</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042128053232836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041306954945671</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023652663704693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011887362061405</v>
+        <v>1.011057484875466</v>
       </c>
       <c r="D25">
-        <v>1.034195564351911</v>
+        <v>1.032743420007086</v>
       </c>
       <c r="E25">
-        <v>1.029338580423369</v>
+        <v>1.02866679126904</v>
       </c>
       <c r="F25">
-        <v>1.040223101055798</v>
+        <v>1.039329667972956</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054756403327271</v>
+        <v>1.053994113202445</v>
       </c>
       <c r="J25">
-        <v>1.036021186450681</v>
+        <v>1.035218365991935</v>
       </c>
       <c r="K25">
-        <v>1.046285256496911</v>
+        <v>1.04485384431165</v>
       </c>
       <c r="L25">
-        <v>1.041497905962667</v>
+        <v>1.040835813679538</v>
       </c>
       <c r="M25">
-        <v>1.052227520157866</v>
+        <v>1.051346647804937</v>
       </c>
       <c r="N25">
-        <v>1.015891792614775</v>
+        <v>1.016587495824152</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04990690908369</v>
+        <v>1.049209766295605</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043845905233866</v>
+        <v>1.042847270720574</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024075401271447</v>
       </c>
     </row>
   </sheetData>
